--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.001869145097669</v>
+      </c>
+      <c r="D3">
+        <v>0.9906757081131774</v>
+      </c>
+      <c r="E3">
         <v>1.003173599132754</v>
       </c>
-      <c r="D3">
-        <v>0.9906757081131772</v>
-      </c>
-      <c r="E3">
-        <v>1.001869145097669</v>
-      </c>
       <c r="F3">
+        <v>0.9906757081131774</v>
+      </c>
+      <c r="G3">
         <v>1.003173599132754</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.004767501072246</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.9951558506275499</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.00224944828964</v>
-      </c>
-      <c r="J3">
-        <v>0.9906757081131772</v>
       </c>
       <c r="K3">
         <v>1.003173599132754</v>
@@ -704,31 +656,31 @@
         <v>1.001869145097669</v>
       </c>
       <c r="M3">
-        <v>0.996272426605423</v>
+        <v>0.9962724266054231</v>
       </c>
       <c r="N3">
-        <v>0.996272426605423</v>
+        <v>0.9962724266054231</v>
       </c>
       <c r="O3">
-        <v>0.9959002346127986</v>
+        <v>0.9959002346127988</v>
       </c>
       <c r="P3">
-        <v>0.9985728174478665</v>
+        <v>0.9985728174478666</v>
       </c>
       <c r="Q3">
-        <v>0.9985728174478665</v>
+        <v>0.9985728174478666</v>
       </c>
       <c r="R3">
-        <v>0.9997230128690883</v>
+        <v>0.9997230128690884</v>
       </c>
       <c r="S3">
-        <v>0.9997230128690883</v>
+        <v>0.9997230128690884</v>
       </c>
       <c r="T3">
-        <v>0.9996485420555059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.999648542055506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006117122361796</v>
+        <v>1.003611939553466</v>
       </c>
       <c r="D4">
         <v>0.9820018794733246</v>
       </c>
       <c r="E4">
-        <v>1.003611939553466</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="F4">
+        <v>0.9820018794733246</v>
+      </c>
+      <c r="G4">
         <v>1.006117122361796</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.009211583520511</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.9906489392399513</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.004342307730939</v>
-      </c>
-      <c r="J4">
-        <v>0.9820018794733246</v>
       </c>
       <c r="K4">
         <v>1.006117122361796</v>
@@ -790,7 +742,7 @@
         <v>0.9993222953133314</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011565585405477</v>
+        <v>1.006970541351242</v>
       </c>
       <c r="D5">
         <v>0.9656114751503008</v>
       </c>
       <c r="E5">
-        <v>1.006970541351242</v>
+        <v>1.011565585405477</v>
       </c>
       <c r="F5">
+        <v>0.9656114751503008</v>
+      </c>
+      <c r="G5">
         <v>1.011565585405477</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.017828792913671</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.9820848301305987</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.008310195847393</v>
-      </c>
-      <c r="J5">
-        <v>0.9656114751503008</v>
       </c>
       <c r="K5">
         <v>1.011565585405477</v>
@@ -852,7 +804,7 @@
         <v>0.9987285701331134</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.016877922963725</v>
+        <v>1.010250074301097</v>
       </c>
       <c r="D6">
         <v>0.9496177432974242</v>
       </c>
       <c r="E6">
-        <v>1.010250074301097</v>
+        <v>1.016877922963725</v>
       </c>
       <c r="F6">
+        <v>0.9496177432974242</v>
+      </c>
+      <c r="G6">
         <v>1.016877922963725</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.026243868181836</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.9737269076312904</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.012182384574001</v>
-      </c>
-      <c r="J6">
-        <v>0.9496177432974242</v>
       </c>
       <c r="K6">
         <v>1.016877922963725</v>
@@ -905,16 +857,16 @@
         <v>0.9922485801874151</v>
       </c>
       <c r="R6">
-        <v>0.9984059158814925</v>
+        <v>0.9984059158814926</v>
       </c>
       <c r="S6">
-        <v>0.9984059158814925</v>
+        <v>0.9984059158814926</v>
       </c>
       <c r="T6">
         <v>0.9981498168248955</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000077372224864</v>
+        <v>1.000180307115689</v>
       </c>
       <c r="D7">
         <v>0.9994270606785908</v>
       </c>
       <c r="E7">
-        <v>1.000180307115688</v>
+        <v>1.000077372224864</v>
       </c>
       <c r="F7">
+        <v>0.9994270606785908</v>
+      </c>
+      <c r="G7">
         <v>1.000077372224864</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.000502906449697</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.9996596771985782</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.000150294249909</v>
-      </c>
-      <c r="J7">
-        <v>0.9994270606785908</v>
       </c>
       <c r="K7">
         <v>1.000077372224864</v>
       </c>
       <c r="L7">
-        <v>1.000180307115688</v>
+        <v>1.000180307115689</v>
       </c>
       <c r="M7">
         <v>0.9998036838971396</v>
@@ -964,19 +916,19 @@
         <v>0.9998949133397144</v>
       </c>
       <c r="Q7">
-        <v>0.9998949133397143</v>
+        <v>0.9998949133397144</v>
       </c>
       <c r="R7">
-        <v>0.9999405280610016</v>
+        <v>0.9999405280610018</v>
       </c>
       <c r="S7">
-        <v>0.9999405280610016</v>
+        <v>0.9999405280610018</v>
       </c>
       <c r="T7">
-        <v>0.9999996029862209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999996029862211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000214429893524</v>
+        <v>1.000454173862353</v>
       </c>
       <c r="D8">
         <v>0.9985287882538523</v>
       </c>
       <c r="E8">
-        <v>1.000454173862353</v>
+        <v>1.000214429893524</v>
       </c>
       <c r="F8">
+        <v>0.9985287882538523</v>
+      </c>
+      <c r="G8">
         <v>1.000214429893524</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.001262781473524</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.9991320036710728</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.000384274621656</v>
-      </c>
-      <c r="J8">
-        <v>0.9985287882538523</v>
       </c>
       <c r="K8">
         <v>1.000214429893524</v>
@@ -1014,31 +966,31 @@
         <v>1.000454173862353</v>
       </c>
       <c r="M8">
-        <v>0.9994914810581028</v>
+        <v>0.9994914810581027</v>
       </c>
       <c r="N8">
-        <v>0.9994914810581028</v>
+        <v>0.9994914810581027</v>
       </c>
       <c r="O8">
         <v>0.9993716552624261</v>
       </c>
       <c r="P8">
-        <v>0.9997324640032433</v>
+        <v>0.9997324640032432</v>
       </c>
       <c r="Q8">
-        <v>0.9997324640032433</v>
+        <v>0.9997324640032432</v>
       </c>
       <c r="R8">
-        <v>0.9998529554758137</v>
+        <v>0.9998529554758135</v>
       </c>
       <c r="S8">
-        <v>0.9998529554758137</v>
+        <v>0.9998529554758135</v>
       </c>
       <c r="T8">
         <v>0.999996075295997</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000623036835142</v>
+      </c>
+      <c r="D9">
+        <v>0.9979140603431158</v>
+      </c>
+      <c r="E9">
         <v>1.000341323170671</v>
       </c>
-      <c r="D9">
-        <v>0.9979140603431159</v>
-      </c>
-      <c r="E9">
-        <v>1.000623036835142</v>
-      </c>
       <c r="F9">
+        <v>0.9979140603431158</v>
+      </c>
+      <c r="G9">
         <v>1.000341323170671</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.001722617941477</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9987833289936072</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.000540902302461</v>
-      </c>
-      <c r="J9">
-        <v>0.9979140603431159</v>
       </c>
       <c r="K9">
         <v>1.000341323170671</v>
@@ -1076,10 +1028,10 @@
         <v>1.000623036835142</v>
       </c>
       <c r="M9">
-        <v>0.9992685485891288</v>
+        <v>0.9992685485891289</v>
       </c>
       <c r="N9">
-        <v>0.9992685485891288</v>
+        <v>0.9992685485891289</v>
       </c>
       <c r="O9">
         <v>0.9991068087239551</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999875449310792</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000689221599296</v>
+        <v>1.001358032805108</v>
       </c>
       <c r="D10">
         <v>0.9955320287621172</v>
       </c>
       <c r="E10">
-        <v>1.001358032805108</v>
+        <v>1.000689221599296</v>
       </c>
       <c r="F10">
+        <v>0.9955320287621172</v>
+      </c>
+      <c r="G10">
         <v>1.000689221599296</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.00376624001838</v>
       </c>
-      <c r="H10">
-        <v>0.9973780810100844</v>
-      </c>
       <c r="I10">
+        <v>0.9973780810100845</v>
+      </c>
+      <c r="J10">
         <v>1.001163040812057</v>
-      </c>
-      <c r="J10">
-        <v>0.9955320287621172</v>
       </c>
       <c r="K10">
         <v>1.000689221599296</v>
@@ -1138,19 +1090,19 @@
         <v>1.001358032805108</v>
       </c>
       <c r="M10">
-        <v>0.9984450307836126</v>
+        <v>0.9984450307836127</v>
       </c>
       <c r="N10">
-        <v>0.9984450307836126</v>
+        <v>0.9984450307836127</v>
       </c>
       <c r="O10">
-        <v>0.9980893808591031</v>
+        <v>0.9980893808591033</v>
       </c>
       <c r="P10">
-        <v>0.9991930943888404</v>
+        <v>0.9991930943888406</v>
       </c>
       <c r="Q10">
-        <v>0.9991930943888404</v>
+        <v>0.9991930943888406</v>
       </c>
       <c r="R10">
         <v>0.9995671261914545</v>
@@ -1159,10 +1111,10 @@
         <v>0.9995671261914545</v>
       </c>
       <c r="T10">
-        <v>0.9999811075011737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9999811075011741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.002220709489882</v>
+      </c>
+      <c r="D11">
+        <v>0.9925244919927911</v>
+      </c>
+      <c r="E11">
         <v>1.001245081486017</v>
       </c>
-      <c r="D11">
-        <v>0.9925244919927914</v>
-      </c>
-      <c r="E11">
-        <v>1.002220709489882</v>
-      </c>
       <c r="F11">
+        <v>0.9925244919927911</v>
+      </c>
+      <c r="G11">
         <v>1.001245081486017</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.006134878777161</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.995647486693517</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.001936266954961</v>
-      </c>
-      <c r="J11">
-        <v>0.9925244919927914</v>
       </c>
       <c r="K11">
         <v>1.001245081486017</v>
@@ -1200,10 +1152,10 @@
         <v>1.002220709489882</v>
       </c>
       <c r="M11">
-        <v>0.9973726007413368</v>
+        <v>0.9973726007413367</v>
       </c>
       <c r="N11">
-        <v>0.9973726007413368</v>
+        <v>0.9973726007413367</v>
       </c>
       <c r="O11">
         <v>0.9967975627253969</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999514858990549</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000686371010913</v>
+        <v>0.9765892650390741</v>
       </c>
       <c r="D12">
         <v>1.059173538553208</v>
       </c>
       <c r="E12">
-        <v>0.9765892650390741</v>
+        <v>1.000686371010913</v>
       </c>
       <c r="F12">
+        <v>1.059173538553208</v>
+      </c>
+      <c r="G12">
         <v>1.000686371010913</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.932891522805595</v>
       </c>
-      <c r="H12">
-        <v>1.038172543073443</v>
-      </c>
       <c r="I12">
+        <v>1.038172543073444</v>
+      </c>
+      <c r="J12">
         <v>0.9836146582932076</v>
-      </c>
-      <c r="J12">
-        <v>1.059173538553208</v>
       </c>
       <c r="K12">
         <v>1.000686371010913</v>
@@ -1286,7 +1238,7 @@
         <v>0.9985213164625736</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.987653634811676</v>
+        <v>0.9978964028596098</v>
       </c>
       <c r="D13">
         <v>1.023103745248175</v>
       </c>
       <c r="E13">
-        <v>0.9978964028596098</v>
+        <v>0.987653634811676</v>
       </c>
       <c r="F13">
+        <v>1.023103745248175</v>
+      </c>
+      <c r="G13">
         <v>0.987653634811676</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.9964550642557636</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.010272971497711</v>
       </c>
-      <c r="I13">
-        <v>0.9949101681855433</v>
-      </c>
       <c r="J13">
-        <v>1.023103745248175</v>
+        <v>0.9949101681855432</v>
       </c>
       <c r="K13">
         <v>0.987653634811676</v>
@@ -1348,7 +1300,7 @@
         <v>1.00171533114308</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000687657631786</v>
+        <v>0.9765902852094965</v>
       </c>
       <c r="D14">
         <v>1.059169072272565</v>
       </c>
       <c r="E14">
-        <v>0.9765902852094965</v>
+        <v>1.000687657631786</v>
       </c>
       <c r="F14">
+        <v>1.059169072272565</v>
+      </c>
+      <c r="G14">
         <v>1.000687657631786</v>
       </c>
-      <c r="G14">
-        <v>0.9328941727198361</v>
-      </c>
       <c r="H14">
+        <v>0.932894172719836</v>
+      </c>
+      <c r="I14">
         <v>1.03817015521869</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.9836157530675956</v>
-      </c>
-      <c r="J14">
-        <v>1.059169072272565</v>
       </c>
       <c r="K14">
         <v>1.000687657631786</v>
@@ -1410,7 +1362,7 @@
         <v>0.9985211826866615</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9876538371927628</v>
+        <v>0.9978967171347422</v>
       </c>
       <c r="D15">
         <v>1.023102652654444</v>
       </c>
       <c r="E15">
-        <v>0.9978967171347422</v>
+        <v>0.9876538371927628</v>
       </c>
       <c r="F15">
+        <v>1.023102652654444</v>
+      </c>
+      <c r="G15">
         <v>0.9876538371927628</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.9964559326577936</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.010272334606966</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.9949104531245083</v>
-      </c>
-      <c r="J15">
-        <v>1.023102652654444</v>
       </c>
       <c r="K15">
         <v>0.9876538371927628</v>
@@ -1472,7 +1424,7 @@
         <v>1.001715321228536</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999217300376998</v>
+        <v>1.037212478684908</v>
       </c>
       <c r="D16">
-        <v>1.000018086463701</v>
+        <v>0.8195054870573266</v>
       </c>
       <c r="E16">
-        <v>1.000036555414859</v>
+        <v>1.059551022342198</v>
       </c>
       <c r="F16">
-        <v>0.9999217300376998</v>
+        <v>0.8195054870573266</v>
       </c>
       <c r="G16">
-        <v>1.000119897679941</v>
+        <v>1.059551022342198</v>
       </c>
       <c r="H16">
-        <v>0.9999830730091313</v>
+        <v>1.095513464281281</v>
       </c>
       <c r="I16">
-        <v>1.000003075801035</v>
+        <v>0.905598206851144</v>
       </c>
       <c r="J16">
-        <v>1.000018086463701</v>
+        <v>1.043725159020829</v>
       </c>
       <c r="K16">
-        <v>0.9999217300376998</v>
+        <v>1.059551022342198</v>
       </c>
       <c r="L16">
-        <v>1.000036555414859</v>
+        <v>1.037212478684908</v>
       </c>
       <c r="M16">
-        <v>1.00002732093928</v>
+        <v>0.9283589828711174</v>
       </c>
       <c r="N16">
-        <v>1.00002732093928</v>
+        <v>0.9283589828711174</v>
       </c>
       <c r="O16">
-        <v>1.000012571629231</v>
+        <v>0.9207720575311263</v>
       </c>
       <c r="P16">
-        <v>0.9999921239720867</v>
+        <v>0.972089662694811</v>
       </c>
       <c r="Q16">
-        <v>0.9999921239720869</v>
+        <v>0.972089662694811</v>
       </c>
       <c r="R16">
-        <v>0.9999745254884901</v>
+        <v>0.9939550026066578</v>
       </c>
       <c r="S16">
-        <v>0.9999745254884901</v>
+        <v>0.9939550026066578</v>
       </c>
       <c r="T16">
-        <v>1.000013736401062</v>
+        <v>0.9935176363729479</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000172248062541</v>
+        <v>1.032082633598015</v>
       </c>
       <c r="D17">
-        <v>0.9992499927949057</v>
+        <v>0.8554559552521839</v>
       </c>
       <c r="E17">
-        <v>1.000196653453942</v>
+        <v>1.043578783147095</v>
       </c>
       <c r="F17">
-        <v>1.000172248062541</v>
+        <v>0.8554559552521839</v>
       </c>
       <c r="G17">
-        <v>1.000532540065667</v>
+        <v>1.043578783147095</v>
       </c>
       <c r="H17">
-        <v>0.9995799022840177</v>
+        <v>1.083783025488432</v>
       </c>
       <c r="I17">
-        <v>1.000189534933589</v>
+        <v>0.9229267058641101</v>
       </c>
       <c r="J17">
-        <v>0.9992499927949057</v>
+        <v>1.035434270727586</v>
       </c>
       <c r="K17">
-        <v>1.000172248062541</v>
+        <v>1.043578783147095</v>
       </c>
       <c r="L17">
-        <v>1.000196653453942</v>
+        <v>1.032082633598015</v>
       </c>
       <c r="M17">
-        <v>0.9997233231244237</v>
+        <v>0.9437692944250993</v>
       </c>
       <c r="N17">
-        <v>0.9997233231244237</v>
+        <v>0.9437692944250993</v>
       </c>
       <c r="O17">
-        <v>0.9996755161776217</v>
+        <v>0.9368217649047695</v>
       </c>
       <c r="P17">
-        <v>0.9998729647704628</v>
+        <v>0.977039123999098</v>
       </c>
       <c r="Q17">
-        <v>0.9998729647704628</v>
+        <v>0.977039123999098</v>
       </c>
       <c r="R17">
-        <v>0.9999477855934823</v>
+        <v>0.9936740387860973</v>
       </c>
       <c r="S17">
-        <v>0.9999477855934823</v>
+        <v>0.9936740387860973</v>
       </c>
       <c r="T17">
-        <v>0.9999868119324437</v>
+        <v>0.9955435623462371</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000874565450664</v>
+        <v>1.021685576051164</v>
       </c>
       <c r="D18">
-        <v>0.9971900423708585</v>
+        <v>0.9275845933475816</v>
       </c>
       <c r="E18">
-        <v>1.000608290241972</v>
+        <v>1.011721525903533</v>
       </c>
       <c r="F18">
-        <v>1.000874565450664</v>
+        <v>0.9275845933475816</v>
       </c>
       <c r="G18">
-        <v>1.001578579684565</v>
+        <v>1.011721525903533</v>
       </c>
       <c r="H18">
-        <v>0.9985121265972885</v>
+        <v>1.059911184444564</v>
       </c>
       <c r="I18">
-        <v>1.000685918199001</v>
+        <v>0.9577619591323797</v>
       </c>
       <c r="J18">
-        <v>0.9971900423708585</v>
+        <v>1.018780602333481</v>
       </c>
       <c r="K18">
-        <v>1.000874565450664</v>
+        <v>1.011721525903533</v>
       </c>
       <c r="L18">
-        <v>1.000608290241972</v>
+        <v>1.021685576051164</v>
       </c>
       <c r="M18">
-        <v>0.9988991663064151</v>
+        <v>0.974635084699373</v>
       </c>
       <c r="N18">
-        <v>0.9988991663064151</v>
+        <v>0.974635084699373</v>
       </c>
       <c r="O18">
-        <v>0.9987701530700396</v>
+        <v>0.9690107095103753</v>
       </c>
       <c r="P18">
-        <v>0.9995576326878313</v>
+        <v>0.9869972317674266</v>
       </c>
       <c r="Q18">
-        <v>0.9995576326878313</v>
+        <v>0.9869972317674264</v>
       </c>
       <c r="R18">
-        <v>0.9998868658785394</v>
+        <v>0.9931783053014531</v>
       </c>
       <c r="S18">
-        <v>0.9998868658785394</v>
+        <v>0.9931783053014531</v>
       </c>
       <c r="T18">
-        <v>0.9999082537573915</v>
+        <v>0.9995742402021174</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.024427618084709</v>
+      </c>
+      <c r="D19">
+        <v>0.9225815935991458</v>
+      </c>
+      <c r="E19">
+        <v>1.010343061187264</v>
+      </c>
+      <c r="F19">
+        <v>0.9225815935991458</v>
+      </c>
+      <c r="G19">
+        <v>1.010343061187264</v>
+      </c>
+      <c r="H19">
+        <v>1.068165627044974</v>
+      </c>
+      <c r="I19">
+        <v>0.9539685546562622</v>
+      </c>
+      <c r="J19">
+        <v>1.020321332215379</v>
+      </c>
+      <c r="K19">
+        <v>1.010343061187264</v>
+      </c>
+      <c r="L19">
+        <v>1.024427618084709</v>
+      </c>
+      <c r="M19">
+        <v>0.9735046058419277</v>
+      </c>
+      <c r="N19">
+        <v>0.9735046058419277</v>
+      </c>
+      <c r="O19">
+        <v>0.9669925887800392</v>
+      </c>
+      <c r="P19">
+        <v>0.9857840909570399</v>
+      </c>
+      <c r="Q19">
+        <v>0.9857840909570399</v>
+      </c>
+      <c r="R19">
+        <v>0.991923833514596</v>
+      </c>
+      <c r="S19">
+        <v>0.991923833514596</v>
+      </c>
+      <c r="T19">
+        <v>0.9999679644646223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000036555414859</v>
+      </c>
+      <c r="D20">
+        <v>1.000018086463701</v>
+      </c>
+      <c r="E20">
+        <v>0.9999217300376998</v>
+      </c>
+      <c r="F20">
+        <v>1.000018086463701</v>
+      </c>
+      <c r="G20">
+        <v>0.9999217300376998</v>
+      </c>
+      <c r="H20">
+        <v>1.000119897679941</v>
+      </c>
+      <c r="I20">
+        <v>0.999983073009131</v>
+      </c>
+      <c r="J20">
+        <v>1.000003075801035</v>
+      </c>
+      <c r="K20">
+        <v>0.9999217300376998</v>
+      </c>
+      <c r="L20">
+        <v>1.000036555414859</v>
+      </c>
+      <c r="M20">
+        <v>1.00002732093928</v>
+      </c>
+      <c r="N20">
+        <v>1.00002732093928</v>
+      </c>
+      <c r="O20">
+        <v>1.000012571629231</v>
+      </c>
+      <c r="P20">
+        <v>0.9999921239720867</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999921239720867</v>
+      </c>
+      <c r="R20">
+        <v>0.99997452548849</v>
+      </c>
+      <c r="S20">
+        <v>0.99997452548849</v>
+      </c>
+      <c r="T20">
+        <v>1.000013736401061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000196653453942</v>
+      </c>
+      <c r="D21">
+        <v>0.9992499927949053</v>
+      </c>
+      <c r="E21">
+        <v>1.000172248062541</v>
+      </c>
+      <c r="F21">
+        <v>0.9992499927949053</v>
+      </c>
+      <c r="G21">
+        <v>1.000172248062541</v>
+      </c>
+      <c r="H21">
+        <v>1.000532540065667</v>
+      </c>
+      <c r="I21">
+        <v>0.9995799022840177</v>
+      </c>
+      <c r="J21">
+        <v>1.000189534933589</v>
+      </c>
+      <c r="K21">
+        <v>1.000172248062541</v>
+      </c>
+      <c r="L21">
+        <v>1.000196653453942</v>
+      </c>
+      <c r="M21">
+        <v>0.9997233231244236</v>
+      </c>
+      <c r="N21">
+        <v>0.9997233231244236</v>
+      </c>
+      <c r="O21">
+        <v>0.9996755161776217</v>
+      </c>
+      <c r="P21">
+        <v>0.9998729647704626</v>
+      </c>
+      <c r="Q21">
+        <v>0.9998729647704625</v>
+      </c>
+      <c r="R21">
+        <v>0.9999477855934821</v>
+      </c>
+      <c r="S21">
+        <v>0.9999477855934821</v>
+      </c>
+      <c r="T21">
+        <v>0.9999868119324434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000608290241972</v>
+      </c>
+      <c r="D22">
+        <v>0.9971900423708585</v>
+      </c>
+      <c r="E22">
+        <v>1.000874565450664</v>
+      </c>
+      <c r="F22">
+        <v>0.9971900423708585</v>
+      </c>
+      <c r="G22">
+        <v>1.000874565450664</v>
+      </c>
+      <c r="H22">
+        <v>1.001578579684565</v>
+      </c>
+      <c r="I22">
+        <v>0.9985121265972885</v>
+      </c>
+      <c r="J22">
+        <v>1.000685918199001</v>
+      </c>
+      <c r="K22">
+        <v>1.000874565450664</v>
+      </c>
+      <c r="L22">
+        <v>1.000608290241972</v>
+      </c>
+      <c r="M22">
+        <v>0.9988991663064151</v>
+      </c>
+      <c r="N22">
+        <v>0.9988991663064151</v>
+      </c>
+      <c r="O22">
+        <v>0.9987701530700396</v>
+      </c>
+      <c r="P22">
+        <v>0.9995576326878313</v>
+      </c>
+      <c r="Q22">
+        <v>0.9995576326878313</v>
+      </c>
+      <c r="R22">
+        <v>0.9998868658785394</v>
+      </c>
+      <c r="S22">
+        <v>0.9998868658785394</v>
+      </c>
+      <c r="T22">
+        <v>0.9999082537573912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001334619014736</v>
+      </c>
+      <c r="D23">
+        <v>0.9932450461218402</v>
+      </c>
+      <c r="E23">
         <v>1.002333238556006</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.9932450461218402</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.002333238556006</v>
+      </c>
+      <c r="H23">
+        <v>1.003389007972477</v>
+      </c>
+      <c r="I23">
+        <v>0.9965045562826106</v>
+      </c>
+      <c r="J23">
+        <v>1.001625761713346</v>
+      </c>
+      <c r="K23">
+        <v>1.002333238556006</v>
+      </c>
+      <c r="L23">
         <v>1.001334619014736</v>
       </c>
-      <c r="F19">
-        <v>1.002333238556006</v>
-      </c>
-      <c r="G19">
-        <v>1.003389007972477</v>
-      </c>
-      <c r="H19">
-        <v>0.9965045562826106</v>
-      </c>
-      <c r="I19">
-        <v>1.001625761713346</v>
-      </c>
-      <c r="J19">
-        <v>0.9932450461218402</v>
-      </c>
-      <c r="K19">
-        <v>1.002333238556006</v>
-      </c>
-      <c r="L19">
-        <v>1.001334619014736</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9972898325682882</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9972898325682882</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9970280738063956</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9989709678975277</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9989709678975277</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9998115355621473</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9998115355621473</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9997387049435028</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001869145097669</v>
+        <v>1.025606359531699</v>
       </c>
       <c r="D3">
-        <v>0.9906757081131774</v>
+        <v>0.9141180382204595</v>
       </c>
       <c r="E3">
-        <v>1.003173599132754</v>
+        <v>1.014113615381848</v>
       </c>
       <c r="F3">
-        <v>0.9906757081131774</v>
+        <v>0.9141180382204595</v>
       </c>
       <c r="G3">
-        <v>1.003173599132754</v>
+        <v>1.014113615381848</v>
       </c>
       <c r="H3">
-        <v>1.004767501072246</v>
+        <v>1.070723267622476</v>
       </c>
       <c r="I3">
-        <v>0.9951558506275499</v>
+        <v>0.9499649194164287</v>
       </c>
       <c r="J3">
-        <v>1.00224944828964</v>
+        <v>1.022255705518732</v>
       </c>
       <c r="K3">
-        <v>1.003173599132754</v>
+        <v>1.014113615381848</v>
       </c>
       <c r="L3">
-        <v>1.001869145097669</v>
+        <v>1.025606359531699</v>
       </c>
       <c r="M3">
-        <v>0.9962724266054231</v>
+        <v>0.9698621988760793</v>
       </c>
       <c r="N3">
-        <v>0.9962724266054231</v>
+        <v>0.9698621988760793</v>
       </c>
       <c r="O3">
-        <v>0.9959002346127988</v>
+        <v>0.963229772389529</v>
       </c>
       <c r="P3">
-        <v>0.9985728174478666</v>
+        <v>0.984612671044669</v>
       </c>
       <c r="Q3">
-        <v>0.9985728174478666</v>
+        <v>0.984612671044669</v>
       </c>
       <c r="R3">
-        <v>0.9997230128690884</v>
+        <v>0.9919879071289639</v>
       </c>
       <c r="S3">
-        <v>0.9997230128690884</v>
+        <v>0.9919879071289639</v>
       </c>
       <c r="T3">
-        <v>0.999648542055506</v>
+        <v>0.9994636509486073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.003611939553466</v>
+        <v>1.023501887463664</v>
       </c>
       <c r="D4">
-        <v>0.9820018794733246</v>
+        <v>0.9215363042936995</v>
       </c>
       <c r="E4">
-        <v>1.006117122361796</v>
+        <v>1.012696464092428</v>
       </c>
       <c r="F4">
-        <v>0.9820018794733246</v>
+        <v>0.9215363042936995</v>
       </c>
       <c r="G4">
-        <v>1.006117122361796</v>
+        <v>1.012696464092428</v>
       </c>
       <c r="H4">
-        <v>1.009211583520511</v>
+        <v>1.064944951921356</v>
       </c>
       <c r="I4">
-        <v>0.9906489392399513</v>
+        <v>0.9542238883674985</v>
       </c>
       <c r="J4">
-        <v>1.004342307730939</v>
+        <v>1.020351618017145</v>
       </c>
       <c r="K4">
-        <v>1.006117122361796</v>
+        <v>1.012696464092428</v>
       </c>
       <c r="L4">
-        <v>1.003611939553466</v>
+        <v>1.023501887463664</v>
       </c>
       <c r="M4">
-        <v>0.9928069095133956</v>
+        <v>0.9725190958786816</v>
       </c>
       <c r="N4">
-        <v>0.9928069095133956</v>
+        <v>0.9725190958786816</v>
       </c>
       <c r="O4">
-        <v>0.9920875860889141</v>
+        <v>0.9664206933749538</v>
       </c>
       <c r="P4">
-        <v>0.9972436471295291</v>
+        <v>0.9859115519499303</v>
       </c>
       <c r="Q4">
-        <v>0.9972436471295291</v>
+        <v>0.9859115519499303</v>
       </c>
       <c r="R4">
-        <v>0.9994620159375958</v>
+        <v>0.9926077799855546</v>
       </c>
       <c r="S4">
-        <v>0.9994620159375958</v>
+        <v>0.9926077799855546</v>
       </c>
       <c r="T4">
-        <v>0.9993222953133314</v>
+        <v>0.9995425190259649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.006970541351242</v>
+        <v>1.029622012102426</v>
       </c>
       <c r="D5">
-        <v>0.9656114751503008</v>
+        <v>0.9000309021293806</v>
       </c>
       <c r="E5">
-        <v>1.011565585405477</v>
+        <v>1.016770092668462</v>
       </c>
       <c r="F5">
-        <v>0.9656114751503008</v>
+        <v>0.9000309021293806</v>
       </c>
       <c r="G5">
-        <v>1.011565585405477</v>
+        <v>1.016770092668462</v>
       </c>
       <c r="H5">
-        <v>1.017828792913671</v>
+        <v>1.081758128005394</v>
       </c>
       <c r="I5">
-        <v>0.9820848301305987</v>
+        <v>0.9418646143126693</v>
       </c>
       <c r="J5">
-        <v>1.008310195847393</v>
+        <v>1.025875097061993</v>
       </c>
       <c r="K5">
-        <v>1.011565585405477</v>
+        <v>1.016770092668462</v>
       </c>
       <c r="L5">
-        <v>1.006970541351242</v>
+        <v>1.029622012102426</v>
       </c>
       <c r="M5">
-        <v>0.9862910082507712</v>
+        <v>0.9648264571159031</v>
       </c>
       <c r="N5">
-        <v>0.9862910082507712</v>
+        <v>0.9648264571159031</v>
       </c>
       <c r="O5">
-        <v>0.9848889488773803</v>
+        <v>0.9571725095148252</v>
       </c>
       <c r="P5">
-        <v>0.9947158673023396</v>
+        <v>0.9821410023000895</v>
       </c>
       <c r="Q5">
-        <v>0.9947158673023399</v>
+        <v>0.9821410023000895</v>
       </c>
       <c r="R5">
-        <v>0.998928296828124</v>
+        <v>0.9907982748921828</v>
       </c>
       <c r="S5">
-        <v>0.998928296828124</v>
+        <v>0.9907982748921828</v>
       </c>
       <c r="T5">
-        <v>0.9987285701331134</v>
+        <v>0.9993201410467208</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.010250074301097</v>
+        <v>1.033394040681818</v>
       </c>
       <c r="D6">
-        <v>0.9496177432974242</v>
+        <v>0.8868789189204537</v>
       </c>
       <c r="E6">
-        <v>1.016877922963725</v>
+        <v>1.019209002329546</v>
       </c>
       <c r="F6">
-        <v>0.9496177432974242</v>
+        <v>0.8868789189204537</v>
       </c>
       <c r="G6">
-        <v>1.016877922963725</v>
+        <v>1.019209002329546</v>
       </c>
       <c r="H6">
-        <v>1.026243868181836</v>
+        <v>1.092134138636363</v>
       </c>
       <c r="I6">
-        <v>0.9737269076312904</v>
+        <v>0.9342870436363642</v>
       </c>
       <c r="J6">
-        <v>1.012182384574001</v>
+        <v>1.029258457159091</v>
       </c>
       <c r="K6">
-        <v>1.016877922963725</v>
+        <v>1.019209002329546</v>
       </c>
       <c r="L6">
-        <v>1.010250074301097</v>
+        <v>1.033394040681818</v>
       </c>
       <c r="M6">
-        <v>0.9799339087992605</v>
+        <v>0.9601364798011358</v>
       </c>
       <c r="N6">
-        <v>0.9799339087992605</v>
+        <v>0.9601364798011358</v>
       </c>
       <c r="O6">
-        <v>0.9778649084099372</v>
+        <v>0.9515200010795453</v>
       </c>
       <c r="P6">
-        <v>0.9922485801874151</v>
+        <v>0.9798273206439392</v>
       </c>
       <c r="Q6">
-        <v>0.9922485801874151</v>
+        <v>0.9798273206439392</v>
       </c>
       <c r="R6">
-        <v>0.9984059158814926</v>
+        <v>0.989672741065341</v>
       </c>
       <c r="S6">
-        <v>0.9984059158814926</v>
+        <v>0.989672741065341</v>
       </c>
       <c r="T6">
-        <v>0.9981498168248955</v>
+        <v>0.9991936002272727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000180307115689</v>
+        <v>1.013933822809887</v>
       </c>
       <c r="D7">
-        <v>0.9994270606785908</v>
+        <v>0.9515608092496086</v>
       </c>
       <c r="E7">
-        <v>1.000077372224864</v>
+        <v>1.008849861258312</v>
       </c>
       <c r="F7">
-        <v>0.9994270606785908</v>
+        <v>0.9515608092496086</v>
       </c>
       <c r="G7">
-        <v>1.000077372224864</v>
+        <v>1.008849861258312</v>
       </c>
       <c r="H7">
-        <v>1.000502906449697</v>
+        <v>1.038191882685752</v>
       </c>
       <c r="I7">
-        <v>0.9996596771985782</v>
+        <v>0.9721445634006841</v>
       </c>
       <c r="J7">
-        <v>1.000150294249909</v>
+        <v>1.012451619759352</v>
       </c>
       <c r="K7">
-        <v>1.000077372224864</v>
+        <v>1.008849861258312</v>
       </c>
       <c r="L7">
-        <v>1.000180307115689</v>
+        <v>1.013933822809887</v>
       </c>
       <c r="M7">
-        <v>0.9998036838971396</v>
+        <v>0.982747316029748</v>
       </c>
       <c r="N7">
-        <v>0.9998036838971396</v>
+        <v>0.982747316029748</v>
       </c>
       <c r="O7">
-        <v>0.9997556816642857</v>
+        <v>0.9792130651533933</v>
       </c>
       <c r="P7">
-        <v>0.9998949133397144</v>
+        <v>0.9914481644392694</v>
       </c>
       <c r="Q7">
-        <v>0.9998949133397144</v>
+        <v>0.9914481644392694</v>
       </c>
       <c r="R7">
-        <v>0.9999405280610018</v>
+        <v>0.9957985886440301</v>
       </c>
       <c r="S7">
-        <v>0.9999405280610018</v>
+        <v>0.9957985886440301</v>
       </c>
       <c r="T7">
-        <v>0.9999996029862211</v>
+        <v>0.9995220931939327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000454173862353</v>
+        <v>1.014507662776878</v>
       </c>
       <c r="D8">
-        <v>0.9985287882538523</v>
+        <v>0.9496899277255813</v>
       </c>
       <c r="E8">
-        <v>1.000214429893524</v>
+        <v>1.009129976083197</v>
       </c>
       <c r="F8">
-        <v>0.9985287882538523</v>
+        <v>0.9496899277255813</v>
       </c>
       <c r="G8">
-        <v>1.000214429893524</v>
+        <v>1.009129976083197</v>
       </c>
       <c r="H8">
-        <v>1.001262781473524</v>
+        <v>1.039787811668401</v>
       </c>
       <c r="I8">
-        <v>0.9991320036710728</v>
+        <v>0.9710421488710952</v>
       </c>
       <c r="J8">
-        <v>1.000384274621656</v>
+        <v>1.012939825723358</v>
       </c>
       <c r="K8">
-        <v>1.000214429893524</v>
+        <v>1.009129976083197</v>
       </c>
       <c r="L8">
-        <v>1.000454173862353</v>
+        <v>1.014507662776878</v>
       </c>
       <c r="M8">
-        <v>0.9994914810581027</v>
+        <v>0.9820987952512296</v>
       </c>
       <c r="N8">
-        <v>0.9994914810581027</v>
+        <v>0.9820987952512296</v>
       </c>
       <c r="O8">
-        <v>0.9993716552624261</v>
+        <v>0.9784132464578515</v>
       </c>
       <c r="P8">
-        <v>0.9997324640032432</v>
+        <v>0.9911091888618854</v>
       </c>
       <c r="Q8">
-        <v>0.9997324640032432</v>
+        <v>0.9911091888618854</v>
       </c>
       <c r="R8">
-        <v>0.9998529554758135</v>
+        <v>0.9956143856672133</v>
       </c>
       <c r="S8">
-        <v>0.9998529554758135</v>
+        <v>0.9956143856672133</v>
       </c>
       <c r="T8">
-        <v>0.999996075295997</v>
+        <v>0.9995162254747516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000623036835142</v>
+        <v>1.015027320053784</v>
       </c>
       <c r="D9">
-        <v>0.9979140603431158</v>
+        <v>0.9481530638057308</v>
       </c>
       <c r="E9">
-        <v>1.000341323170671</v>
+        <v>1.009273836402306</v>
       </c>
       <c r="F9">
-        <v>0.9979140603431158</v>
+        <v>0.9481530638057308</v>
       </c>
       <c r="G9">
-        <v>1.000341323170671</v>
+        <v>1.009273836402306</v>
       </c>
       <c r="H9">
-        <v>1.001722617941477</v>
+        <v>1.041254969819206</v>
       </c>
       <c r="I9">
-        <v>0.9987833289936072</v>
+        <v>0.9701044036405227</v>
       </c>
       <c r="J9">
-        <v>1.000540902302461</v>
+        <v>1.013349921421908</v>
       </c>
       <c r="K9">
-        <v>1.000341323170671</v>
+        <v>1.009273836402306</v>
       </c>
       <c r="L9">
-        <v>1.000623036835142</v>
+        <v>1.015027320053784</v>
       </c>
       <c r="M9">
-        <v>0.9992685485891289</v>
+        <v>0.9815901919297572</v>
       </c>
       <c r="N9">
-        <v>0.9992685485891289</v>
+        <v>0.9815901919297572</v>
       </c>
       <c r="O9">
-        <v>0.9991068087239551</v>
+        <v>0.9777615958333458</v>
       </c>
       <c r="P9">
-        <v>0.9996261401163098</v>
+        <v>0.9908180734206068</v>
       </c>
       <c r="Q9">
-        <v>0.9996261401163098</v>
+        <v>0.9908180734206068</v>
       </c>
       <c r="R9">
-        <v>0.9998049358799002</v>
+        <v>0.9954320141660316</v>
       </c>
       <c r="S9">
-        <v>0.9998049358799002</v>
+        <v>0.9954320141660316</v>
       </c>
       <c r="T9">
-        <v>0.9999875449310792</v>
+        <v>0.9995272525239097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001358032805108</v>
+        <v>1.016113753848601</v>
       </c>
       <c r="D10">
-        <v>0.9955320287621172</v>
+        <v>0.9442436404700184</v>
       </c>
       <c r="E10">
-        <v>1.000689221599296</v>
+        <v>1.010062684341584</v>
       </c>
       <c r="F10">
-        <v>0.9955320287621172</v>
+        <v>0.9442436404700184</v>
       </c>
       <c r="G10">
-        <v>1.000689221599296</v>
+        <v>1.010062684341584</v>
       </c>
       <c r="H10">
-        <v>1.00376624001838</v>
+        <v>1.044231185051584</v>
       </c>
       <c r="I10">
-        <v>0.9973780810100845</v>
+        <v>0.9678728249508879</v>
       </c>
       <c r="J10">
-        <v>1.001163040812057</v>
+        <v>1.014349595662799</v>
       </c>
       <c r="K10">
-        <v>1.000689221599296</v>
+        <v>1.010062684341584</v>
       </c>
       <c r="L10">
-        <v>1.001358032805108</v>
+        <v>1.016113753848601</v>
       </c>
       <c r="M10">
-        <v>0.9984450307836127</v>
+        <v>0.9801786971593098</v>
       </c>
       <c r="N10">
-        <v>0.9984450307836127</v>
+        <v>0.9801786971593098</v>
       </c>
       <c r="O10">
-        <v>0.9980893808591033</v>
+        <v>0.9760767397565026</v>
       </c>
       <c r="P10">
-        <v>0.9991930943888406</v>
+        <v>0.9901400262200678</v>
       </c>
       <c r="Q10">
-        <v>0.9991930943888406</v>
+        <v>0.9901400262200678</v>
       </c>
       <c r="R10">
-        <v>0.9995671261914545</v>
+        <v>0.9951206907504468</v>
       </c>
       <c r="S10">
-        <v>0.9995671261914545</v>
+        <v>0.9951206907504468</v>
       </c>
       <c r="T10">
-        <v>0.9999811075011741</v>
+        <v>0.9994789473875793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002220709489882</v>
+        <v>1.002054410717839</v>
       </c>
       <c r="D11">
-        <v>0.9925244919927911</v>
+        <v>0.9898368253789375</v>
       </c>
       <c r="E11">
-        <v>1.001245081486017</v>
+        <v>1.003425582402213</v>
       </c>
       <c r="F11">
-        <v>0.9925244919927911</v>
+        <v>0.9898368253789375</v>
       </c>
       <c r="G11">
-        <v>1.001245081486017</v>
+        <v>1.003425582402213</v>
       </c>
       <c r="H11">
-        <v>1.006134878777161</v>
+        <v>1.005243820996184</v>
       </c>
       <c r="I11">
-        <v>0.995647486693517</v>
+        <v>0.9947127128811338</v>
       </c>
       <c r="J11">
-        <v>1.001936266954961</v>
+        <v>1.002454165391834</v>
       </c>
       <c r="K11">
-        <v>1.001245081486017</v>
+        <v>1.003425582402213</v>
       </c>
       <c r="L11">
-        <v>1.002220709489882</v>
+        <v>1.002054410717839</v>
       </c>
       <c r="M11">
-        <v>0.9973726007413367</v>
+        <v>0.9959456180483881</v>
       </c>
       <c r="N11">
-        <v>0.9973726007413367</v>
+        <v>0.9959456180483881</v>
       </c>
       <c r="O11">
-        <v>0.9967975627253969</v>
+        <v>0.9955346496593034</v>
       </c>
       <c r="P11">
-        <v>0.9986634276562301</v>
+        <v>0.998438939499663</v>
       </c>
       <c r="Q11">
-        <v>0.9986634276562301</v>
+        <v>0.9984389394996631</v>
       </c>
       <c r="R11">
-        <v>0.9993088411136767</v>
+        <v>0.9996856002253005</v>
       </c>
       <c r="S11">
-        <v>0.9993088411136767</v>
+        <v>0.9996856002253005</v>
       </c>
       <c r="T11">
-        <v>0.9999514858990549</v>
+        <v>0.999621252961357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9765892650390741</v>
+        <v>1.000987200258489</v>
       </c>
       <c r="D12">
-        <v>1.059173538553208</v>
+        <v>0.9951571294332178</v>
       </c>
       <c r="E12">
-        <v>1.000686371010913</v>
+        <v>1.00161858425325</v>
       </c>
       <c r="F12">
-        <v>1.059173538553208</v>
+        <v>0.9951571294332178</v>
       </c>
       <c r="G12">
-        <v>1.000686371010913</v>
+        <v>1.00161858425325</v>
       </c>
       <c r="H12">
-        <v>0.932891522805595</v>
+        <v>1.002528085393635</v>
       </c>
       <c r="I12">
-        <v>1.038172543073444</v>
+        <v>0.997473692244509</v>
       </c>
       <c r="J12">
-        <v>0.9836146582932076</v>
+        <v>1.0011712740917</v>
       </c>
       <c r="K12">
-        <v>1.000686371010913</v>
+        <v>1.00161858425325</v>
       </c>
       <c r="L12">
-        <v>0.9765892650390741</v>
+        <v>1.000987200258489</v>
       </c>
       <c r="M12">
-        <v>1.017881401796141</v>
+        <v>0.9980721648458534</v>
       </c>
       <c r="N12">
-        <v>1.017881401796141</v>
+        <v>0.9980721648458534</v>
       </c>
       <c r="O12">
-        <v>1.024645115555242</v>
+        <v>0.9978726739787386</v>
       </c>
       <c r="P12">
-        <v>1.012149724867732</v>
+        <v>0.999254304648319</v>
       </c>
       <c r="Q12">
-        <v>1.012149724867732</v>
+        <v>0.999254304648319</v>
       </c>
       <c r="R12">
-        <v>1.009283886403527</v>
+        <v>0.9998453745495517</v>
       </c>
       <c r="S12">
-        <v>1.009283886403527</v>
+        <v>0.9998453745495517</v>
       </c>
       <c r="T12">
-        <v>0.9985213164625736</v>
+        <v>0.9998226609458003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9978964028596098</v>
+        <v>1.003260118319465</v>
       </c>
       <c r="D13">
-        <v>1.023103745248175</v>
+        <v>0.9835602143165267</v>
       </c>
       <c r="E13">
-        <v>0.987653634811676</v>
+        <v>1.00565956306648</v>
       </c>
       <c r="F13">
-        <v>1.023103745248175</v>
+        <v>0.9835602143165267</v>
       </c>
       <c r="G13">
-        <v>0.987653634811676</v>
+        <v>1.00565956306648</v>
       </c>
       <c r="H13">
-        <v>0.9964550642557636</v>
+        <v>1.008293529131854</v>
       </c>
       <c r="I13">
-        <v>1.010272971497711</v>
+        <v>0.9914815548547732</v>
       </c>
       <c r="J13">
-        <v>0.9949101681855432</v>
+        <v>1.003959662570782</v>
       </c>
       <c r="K13">
-        <v>0.987653634811676</v>
+        <v>1.00565956306648</v>
       </c>
       <c r="L13">
-        <v>0.9978964028596098</v>
+        <v>1.003260118319465</v>
       </c>
       <c r="M13">
-        <v>1.010500074053892</v>
+        <v>0.9934101663179959</v>
       </c>
       <c r="N13">
-        <v>1.010500074053892</v>
+        <v>0.9934101663179959</v>
       </c>
       <c r="O13">
-        <v>1.010424373201832</v>
+        <v>0.992767295830255</v>
       </c>
       <c r="P13">
-        <v>1.002884594306487</v>
+        <v>0.9974932985674906</v>
       </c>
       <c r="Q13">
-        <v>1.002884594306487</v>
+        <v>0.9974932985674906</v>
       </c>
       <c r="R13">
-        <v>0.9990768544327842</v>
+        <v>0.999534864692238</v>
       </c>
       <c r="S13">
-        <v>0.9990768544327842</v>
+        <v>0.999534864692238</v>
       </c>
       <c r="T13">
-        <v>1.00171533114308</v>
+        <v>0.9993691070433135</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9765902852094965</v>
+        <v>1.005264916450142</v>
       </c>
       <c r="D14">
-        <v>1.059169072272565</v>
+        <v>0.9740999915619993</v>
       </c>
       <c r="E14">
-        <v>1.000687657631786</v>
+        <v>1.008682749464076</v>
       </c>
       <c r="F14">
-        <v>1.059169072272565</v>
+        <v>0.9740999915619993</v>
       </c>
       <c r="G14">
-        <v>1.000687657631786</v>
+        <v>1.008682749464076</v>
       </c>
       <c r="H14">
-        <v>0.932894172719836</v>
+        <v>1.013473304236565</v>
       </c>
       <c r="I14">
-        <v>1.03817015521869</v>
+        <v>0.986498652655561</v>
       </c>
       <c r="J14">
-        <v>0.9836157530675956</v>
+        <v>1.006261360394734</v>
       </c>
       <c r="K14">
-        <v>1.000687657631786</v>
+        <v>1.008682749464076</v>
       </c>
       <c r="L14">
-        <v>0.9765902852094965</v>
+        <v>1.005264916450142</v>
       </c>
       <c r="M14">
-        <v>1.017879678741031</v>
+        <v>0.9896824540060709</v>
       </c>
       <c r="N14">
-        <v>1.017879678741031</v>
+        <v>0.9896824540060709</v>
       </c>
       <c r="O14">
-        <v>1.02464317090025</v>
+        <v>0.9886211868892344</v>
       </c>
       <c r="P14">
-        <v>1.012149005037949</v>
+        <v>0.9960158858254058</v>
       </c>
       <c r="Q14">
-        <v>1.012149005037949</v>
+        <v>0.9960158858254058</v>
       </c>
       <c r="R14">
-        <v>1.009283668186409</v>
+        <v>0.9991826017350732</v>
       </c>
       <c r="S14">
-        <v>1.009283668186409</v>
+        <v>0.9991826017350732</v>
       </c>
       <c r="T14">
-        <v>0.9985211826866615</v>
+        <v>0.9990468291271796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9978967171347422</v>
+        <v>1.001869145097669</v>
       </c>
       <c r="D15">
-        <v>1.023102652654444</v>
+        <v>0.9906757081131774</v>
       </c>
       <c r="E15">
-        <v>0.9876538371927628</v>
+        <v>1.003173599132754</v>
       </c>
       <c r="F15">
-        <v>1.023102652654444</v>
+        <v>0.9906757081131774</v>
       </c>
       <c r="G15">
-        <v>0.9876538371927628</v>
+        <v>1.003173599132754</v>
       </c>
       <c r="H15">
-        <v>0.9964559326577936</v>
+        <v>1.004767501072246</v>
       </c>
       <c r="I15">
-        <v>1.010272334606966</v>
+        <v>0.9951558506275499</v>
       </c>
       <c r="J15">
-        <v>0.9949104531245083</v>
+        <v>1.00224944828964</v>
       </c>
       <c r="K15">
-        <v>0.9876538371927628</v>
+        <v>1.003173599132754</v>
       </c>
       <c r="L15">
-        <v>0.9978967171347422</v>
+        <v>1.001869145097669</v>
       </c>
       <c r="M15">
-        <v>1.010499684894593</v>
+        <v>0.9962724266054231</v>
       </c>
       <c r="N15">
-        <v>1.010499684894593</v>
+        <v>0.9962724266054231</v>
       </c>
       <c r="O15">
-        <v>1.010423901465384</v>
+        <v>0.9959002346127988</v>
       </c>
       <c r="P15">
-        <v>1.002884402327316</v>
+        <v>0.9985728174478666</v>
       </c>
       <c r="Q15">
-        <v>1.002884402327316</v>
+        <v>0.9985728174478666</v>
       </c>
       <c r="R15">
-        <v>0.9990767610436779</v>
+        <v>0.9997230128690884</v>
       </c>
       <c r="S15">
-        <v>0.9990767610436779</v>
+        <v>0.9997230128690884</v>
       </c>
       <c r="T15">
-        <v>1.001715321228536</v>
+        <v>0.999648542055506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.037212478684908</v>
+        <v>1.003611939553466</v>
       </c>
       <c r="D16">
-        <v>0.8195054870573266</v>
+        <v>0.9820018794733246</v>
       </c>
       <c r="E16">
-        <v>1.059551022342198</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="F16">
-        <v>0.8195054870573266</v>
+        <v>0.9820018794733246</v>
       </c>
       <c r="G16">
-        <v>1.059551022342198</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="H16">
-        <v>1.095513464281281</v>
+        <v>1.009211583520511</v>
       </c>
       <c r="I16">
-        <v>0.905598206851144</v>
+        <v>0.9906489392399513</v>
       </c>
       <c r="J16">
-        <v>1.043725159020829</v>
+        <v>1.004342307730939</v>
       </c>
       <c r="K16">
-        <v>1.059551022342198</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="L16">
-        <v>1.037212478684908</v>
+        <v>1.003611939553466</v>
       </c>
       <c r="M16">
-        <v>0.9283589828711174</v>
+        <v>0.9928069095133956</v>
       </c>
       <c r="N16">
-        <v>0.9283589828711174</v>
+        <v>0.9928069095133956</v>
       </c>
       <c r="O16">
-        <v>0.9207720575311263</v>
+        <v>0.9920875860889141</v>
       </c>
       <c r="P16">
-        <v>0.972089662694811</v>
+        <v>0.9972436471295291</v>
       </c>
       <c r="Q16">
-        <v>0.972089662694811</v>
+        <v>0.9972436471295291</v>
       </c>
       <c r="R16">
-        <v>0.9939550026066578</v>
+        <v>0.9994620159375958</v>
       </c>
       <c r="S16">
-        <v>0.9939550026066578</v>
+        <v>0.9994620159375958</v>
       </c>
       <c r="T16">
-        <v>0.9935176363729479</v>
+        <v>0.9993222953133314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.032082633598015</v>
+        <v>1.006970541351242</v>
       </c>
       <c r="D17">
-        <v>0.8554559552521839</v>
+        <v>0.9656114751503008</v>
       </c>
       <c r="E17">
-        <v>1.043578783147095</v>
+        <v>1.011565585405477</v>
       </c>
       <c r="F17">
-        <v>0.8554559552521839</v>
+        <v>0.9656114751503008</v>
       </c>
       <c r="G17">
-        <v>1.043578783147095</v>
+        <v>1.011565585405477</v>
       </c>
       <c r="H17">
-        <v>1.083783025488432</v>
+        <v>1.017828792913671</v>
       </c>
       <c r="I17">
-        <v>0.9229267058641101</v>
+        <v>0.9820848301305987</v>
       </c>
       <c r="J17">
-        <v>1.035434270727586</v>
+        <v>1.008310195847393</v>
       </c>
       <c r="K17">
-        <v>1.043578783147095</v>
+        <v>1.011565585405477</v>
       </c>
       <c r="L17">
-        <v>1.032082633598015</v>
+        <v>1.006970541351242</v>
       </c>
       <c r="M17">
-        <v>0.9437692944250993</v>
+        <v>0.9862910082507712</v>
       </c>
       <c r="N17">
-        <v>0.9437692944250993</v>
+        <v>0.9862910082507712</v>
       </c>
       <c r="O17">
-        <v>0.9368217649047695</v>
+        <v>0.9848889488773803</v>
       </c>
       <c r="P17">
-        <v>0.977039123999098</v>
+        <v>0.9947158673023396</v>
       </c>
       <c r="Q17">
-        <v>0.977039123999098</v>
+        <v>0.9947158673023399</v>
       </c>
       <c r="R17">
-        <v>0.9936740387860973</v>
+        <v>0.998928296828124</v>
       </c>
       <c r="S17">
-        <v>0.9936740387860973</v>
+        <v>0.998928296828124</v>
       </c>
       <c r="T17">
-        <v>0.9955435623462371</v>
+        <v>0.9987285701331134</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.021685576051164</v>
+        <v>1.010250074301097</v>
       </c>
       <c r="D18">
-        <v>0.9275845933475816</v>
+        <v>0.9496177432974242</v>
       </c>
       <c r="E18">
-        <v>1.011721525903533</v>
+        <v>1.016877922963725</v>
       </c>
       <c r="F18">
-        <v>0.9275845933475816</v>
+        <v>0.9496177432974242</v>
       </c>
       <c r="G18">
-        <v>1.011721525903533</v>
+        <v>1.016877922963725</v>
       </c>
       <c r="H18">
-        <v>1.059911184444564</v>
+        <v>1.026243868181836</v>
       </c>
       <c r="I18">
-        <v>0.9577619591323797</v>
+        <v>0.9737269076312904</v>
       </c>
       <c r="J18">
-        <v>1.018780602333481</v>
+        <v>1.012182384574001</v>
       </c>
       <c r="K18">
-        <v>1.011721525903533</v>
+        <v>1.016877922963725</v>
       </c>
       <c r="L18">
-        <v>1.021685576051164</v>
+        <v>1.010250074301097</v>
       </c>
       <c r="M18">
-        <v>0.974635084699373</v>
+        <v>0.9799339087992605</v>
       </c>
       <c r="N18">
-        <v>0.974635084699373</v>
+        <v>0.9799339087992605</v>
       </c>
       <c r="O18">
-        <v>0.9690107095103753</v>
+        <v>0.9778649084099372</v>
       </c>
       <c r="P18">
-        <v>0.9869972317674266</v>
+        <v>0.9922485801874151</v>
       </c>
       <c r="Q18">
-        <v>0.9869972317674264</v>
+        <v>0.9922485801874151</v>
       </c>
       <c r="R18">
-        <v>0.9931783053014531</v>
+        <v>0.9984059158814926</v>
       </c>
       <c r="S18">
-        <v>0.9931783053014531</v>
+        <v>0.9984059158814926</v>
       </c>
       <c r="T18">
-        <v>0.9995742402021174</v>
+        <v>0.9981498168248955</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.024427618084709</v>
+        <v>1.000180307115689</v>
       </c>
       <c r="D19">
-        <v>0.9225815935991458</v>
+        <v>0.9994270606785908</v>
       </c>
       <c r="E19">
-        <v>1.010343061187264</v>
+        <v>1.000077372224864</v>
       </c>
       <c r="F19">
-        <v>0.9225815935991458</v>
+        <v>0.9994270606785908</v>
       </c>
       <c r="G19">
-        <v>1.010343061187264</v>
+        <v>1.000077372224864</v>
       </c>
       <c r="H19">
-        <v>1.068165627044974</v>
+        <v>1.000502906449697</v>
       </c>
       <c r="I19">
-        <v>0.9539685546562622</v>
+        <v>0.9996596771985782</v>
       </c>
       <c r="J19">
-        <v>1.020321332215379</v>
+        <v>1.000150294249909</v>
       </c>
       <c r="K19">
-        <v>1.010343061187264</v>
+        <v>1.000077372224864</v>
       </c>
       <c r="L19">
-        <v>1.024427618084709</v>
+        <v>1.000180307115689</v>
       </c>
       <c r="M19">
-        <v>0.9735046058419277</v>
+        <v>0.9998036838971396</v>
       </c>
       <c r="N19">
-        <v>0.9735046058419277</v>
+        <v>0.9998036838971396</v>
       </c>
       <c r="O19">
-        <v>0.9669925887800392</v>
+        <v>0.9997556816642857</v>
       </c>
       <c r="P19">
-        <v>0.9857840909570399</v>
+        <v>0.9998949133397144</v>
       </c>
       <c r="Q19">
-        <v>0.9857840909570399</v>
+        <v>0.9998949133397144</v>
       </c>
       <c r="R19">
-        <v>0.991923833514596</v>
+        <v>0.9999405280610018</v>
       </c>
       <c r="S19">
-        <v>0.991923833514596</v>
+        <v>0.9999405280610018</v>
       </c>
       <c r="T19">
-        <v>0.9999679644646223</v>
+        <v>0.9999996029862211</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000036555414859</v>
+        <v>1.000454173862353</v>
       </c>
       <c r="D20">
-        <v>1.000018086463701</v>
+        <v>0.9985287882538523</v>
       </c>
       <c r="E20">
-        <v>0.9999217300376998</v>
+        <v>1.000214429893524</v>
       </c>
       <c r="F20">
-        <v>1.000018086463701</v>
+        <v>0.9985287882538523</v>
       </c>
       <c r="G20">
-        <v>0.9999217300376998</v>
+        <v>1.000214429893524</v>
       </c>
       <c r="H20">
-        <v>1.000119897679941</v>
+        <v>1.001262781473524</v>
       </c>
       <c r="I20">
-        <v>0.999983073009131</v>
+        <v>0.9991320036710728</v>
       </c>
       <c r="J20">
-        <v>1.000003075801035</v>
+        <v>1.000384274621656</v>
       </c>
       <c r="K20">
-        <v>0.9999217300376998</v>
+        <v>1.000214429893524</v>
       </c>
       <c r="L20">
-        <v>1.000036555414859</v>
+        <v>1.000454173862353</v>
       </c>
       <c r="M20">
-        <v>1.00002732093928</v>
+        <v>0.9994914810581027</v>
       </c>
       <c r="N20">
-        <v>1.00002732093928</v>
+        <v>0.9994914810581027</v>
       </c>
       <c r="O20">
-        <v>1.000012571629231</v>
+        <v>0.9993716552624261</v>
       </c>
       <c r="P20">
-        <v>0.9999921239720867</v>
+        <v>0.9997324640032432</v>
       </c>
       <c r="Q20">
-        <v>0.9999921239720867</v>
+        <v>0.9997324640032432</v>
       </c>
       <c r="R20">
-        <v>0.99997452548849</v>
+        <v>0.9998529554758135</v>
       </c>
       <c r="S20">
-        <v>0.99997452548849</v>
+        <v>0.9998529554758135</v>
       </c>
       <c r="T20">
-        <v>1.000013736401061</v>
+        <v>0.999996075295997</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000196653453942</v>
+        <v>1.000623036835142</v>
       </c>
       <c r="D21">
-        <v>0.9992499927949053</v>
+        <v>0.9979140603431158</v>
       </c>
       <c r="E21">
-        <v>1.000172248062541</v>
+        <v>1.000341323170671</v>
       </c>
       <c r="F21">
-        <v>0.9992499927949053</v>
+        <v>0.9979140603431158</v>
       </c>
       <c r="G21">
-        <v>1.000172248062541</v>
+        <v>1.000341323170671</v>
       </c>
       <c r="H21">
-        <v>1.000532540065667</v>
+        <v>1.001722617941477</v>
       </c>
       <c r="I21">
-        <v>0.9995799022840177</v>
+        <v>0.9987833289936072</v>
       </c>
       <c r="J21">
-        <v>1.000189534933589</v>
+        <v>1.000540902302461</v>
       </c>
       <c r="K21">
-        <v>1.000172248062541</v>
+        <v>1.000341323170671</v>
       </c>
       <c r="L21">
-        <v>1.000196653453942</v>
+        <v>1.000623036835142</v>
       </c>
       <c r="M21">
-        <v>0.9997233231244236</v>
+        <v>0.9992685485891289</v>
       </c>
       <c r="N21">
-        <v>0.9997233231244236</v>
+        <v>0.9992685485891289</v>
       </c>
       <c r="O21">
-        <v>0.9996755161776217</v>
+        <v>0.9991068087239551</v>
       </c>
       <c r="P21">
-        <v>0.9998729647704626</v>
+        <v>0.9996261401163098</v>
       </c>
       <c r="Q21">
-        <v>0.9998729647704625</v>
+        <v>0.9996261401163098</v>
       </c>
       <c r="R21">
-        <v>0.9999477855934821</v>
+        <v>0.9998049358799002</v>
       </c>
       <c r="S21">
-        <v>0.9999477855934821</v>
+        <v>0.9998049358799002</v>
       </c>
       <c r="T21">
-        <v>0.9999868119324434</v>
+        <v>0.9999875449310792</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000608290241972</v>
+        <v>1.001358032805108</v>
       </c>
       <c r="D22">
-        <v>0.9971900423708585</v>
+        <v>0.9955320287621172</v>
       </c>
       <c r="E22">
-        <v>1.000874565450664</v>
+        <v>1.000689221599296</v>
       </c>
       <c r="F22">
-        <v>0.9971900423708585</v>
+        <v>0.9955320287621172</v>
       </c>
       <c r="G22">
-        <v>1.000874565450664</v>
+        <v>1.000689221599296</v>
       </c>
       <c r="H22">
-        <v>1.001578579684565</v>
+        <v>1.00376624001838</v>
       </c>
       <c r="I22">
-        <v>0.9985121265972885</v>
+        <v>0.9973780810100845</v>
       </c>
       <c r="J22">
-        <v>1.000685918199001</v>
+        <v>1.001163040812057</v>
       </c>
       <c r="K22">
-        <v>1.000874565450664</v>
+        <v>1.000689221599296</v>
       </c>
       <c r="L22">
-        <v>1.000608290241972</v>
+        <v>1.001358032805108</v>
       </c>
       <c r="M22">
-        <v>0.9988991663064151</v>
+        <v>0.9984450307836127</v>
       </c>
       <c r="N22">
-        <v>0.9988991663064151</v>
+        <v>0.9984450307836127</v>
       </c>
       <c r="O22">
-        <v>0.9987701530700396</v>
+        <v>0.9980893808591033</v>
       </c>
       <c r="P22">
-        <v>0.9995576326878313</v>
+        <v>0.9991930943888406</v>
       </c>
       <c r="Q22">
-        <v>0.9995576326878313</v>
+        <v>0.9991930943888406</v>
       </c>
       <c r="R22">
-        <v>0.9998868658785394</v>
+        <v>0.9995671261914545</v>
       </c>
       <c r="S22">
-        <v>0.9998868658785394</v>
+        <v>0.9995671261914545</v>
       </c>
       <c r="T22">
-        <v>0.9999082537573912</v>
+        <v>0.9999811075011741</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.002220709489882</v>
+      </c>
+      <c r="D23">
+        <v>0.9925244919927911</v>
+      </c>
+      <c r="E23">
+        <v>1.001245081486017</v>
+      </c>
+      <c r="F23">
+        <v>0.9925244919927911</v>
+      </c>
+      <c r="G23">
+        <v>1.001245081486017</v>
+      </c>
+      <c r="H23">
+        <v>1.006134878777161</v>
+      </c>
+      <c r="I23">
+        <v>0.995647486693517</v>
+      </c>
+      <c r="J23">
+        <v>1.001936266954961</v>
+      </c>
+      <c r="K23">
+        <v>1.001245081486017</v>
+      </c>
+      <c r="L23">
+        <v>1.002220709489882</v>
+      </c>
+      <c r="M23">
+        <v>0.9973726007413367</v>
+      </c>
+      <c r="N23">
+        <v>0.9973726007413367</v>
+      </c>
+      <c r="O23">
+        <v>0.9967975627253969</v>
+      </c>
+      <c r="P23">
+        <v>0.9986634276562301</v>
+      </c>
+      <c r="Q23">
+        <v>0.9986634276562301</v>
+      </c>
+      <c r="R23">
+        <v>0.9993088411136767</v>
+      </c>
+      <c r="S23">
+        <v>0.9993088411136767</v>
+      </c>
+      <c r="T23">
+        <v>0.9999514858990549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9765892650390741</v>
+      </c>
+      <c r="D24">
+        <v>1.059173538553208</v>
+      </c>
+      <c r="E24">
+        <v>1.000686371010913</v>
+      </c>
+      <c r="F24">
+        <v>1.059173538553208</v>
+      </c>
+      <c r="G24">
+        <v>1.000686371010913</v>
+      </c>
+      <c r="H24">
+        <v>0.932891522805595</v>
+      </c>
+      <c r="I24">
+        <v>1.038172543073444</v>
+      </c>
+      <c r="J24">
+        <v>0.9836146582932076</v>
+      </c>
+      <c r="K24">
+        <v>1.000686371010913</v>
+      </c>
+      <c r="L24">
+        <v>0.9765892650390741</v>
+      </c>
+      <c r="M24">
+        <v>1.017881401796141</v>
+      </c>
+      <c r="N24">
+        <v>1.017881401796141</v>
+      </c>
+      <c r="O24">
+        <v>1.024645115555242</v>
+      </c>
+      <c r="P24">
+        <v>1.012149724867732</v>
+      </c>
+      <c r="Q24">
+        <v>1.012149724867732</v>
+      </c>
+      <c r="R24">
+        <v>1.009283886403527</v>
+      </c>
+      <c r="S24">
+        <v>1.009283886403527</v>
+      </c>
+      <c r="T24">
+        <v>0.9985213164625736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9978964028596098</v>
+      </c>
+      <c r="D25">
+        <v>1.023103745248175</v>
+      </c>
+      <c r="E25">
+        <v>0.987653634811676</v>
+      </c>
+      <c r="F25">
+        <v>1.023103745248175</v>
+      </c>
+      <c r="G25">
+        <v>0.987653634811676</v>
+      </c>
+      <c r="H25">
+        <v>0.9964550642557636</v>
+      </c>
+      <c r="I25">
+        <v>1.010272971497711</v>
+      </c>
+      <c r="J25">
+        <v>0.9949101681855432</v>
+      </c>
+      <c r="K25">
+        <v>0.987653634811676</v>
+      </c>
+      <c r="L25">
+        <v>0.9978964028596098</v>
+      </c>
+      <c r="M25">
+        <v>1.010500074053892</v>
+      </c>
+      <c r="N25">
+        <v>1.010500074053892</v>
+      </c>
+      <c r="O25">
+        <v>1.010424373201832</v>
+      </c>
+      <c r="P25">
+        <v>1.002884594306487</v>
+      </c>
+      <c r="Q25">
+        <v>1.002884594306487</v>
+      </c>
+      <c r="R25">
+        <v>0.9990768544327842</v>
+      </c>
+      <c r="S25">
+        <v>0.9990768544327842</v>
+      </c>
+      <c r="T25">
+        <v>1.00171533114308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9765902852094965</v>
+      </c>
+      <c r="D26">
+        <v>1.059169072272565</v>
+      </c>
+      <c r="E26">
+        <v>1.000687657631786</v>
+      </c>
+      <c r="F26">
+        <v>1.059169072272565</v>
+      </c>
+      <c r="G26">
+        <v>1.000687657631786</v>
+      </c>
+      <c r="H26">
+        <v>0.932894172719836</v>
+      </c>
+      <c r="I26">
+        <v>1.03817015521869</v>
+      </c>
+      <c r="J26">
+        <v>0.9836157530675956</v>
+      </c>
+      <c r="K26">
+        <v>1.000687657631786</v>
+      </c>
+      <c r="L26">
+        <v>0.9765902852094965</v>
+      </c>
+      <c r="M26">
+        <v>1.017879678741031</v>
+      </c>
+      <c r="N26">
+        <v>1.017879678741031</v>
+      </c>
+      <c r="O26">
+        <v>1.02464317090025</v>
+      </c>
+      <c r="P26">
+        <v>1.012149005037949</v>
+      </c>
+      <c r="Q26">
+        <v>1.012149005037949</v>
+      </c>
+      <c r="R26">
+        <v>1.009283668186409</v>
+      </c>
+      <c r="S26">
+        <v>1.009283668186409</v>
+      </c>
+      <c r="T26">
+        <v>0.9985211826866615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9978967171347422</v>
+      </c>
+      <c r="D27">
+        <v>1.023102652654444</v>
+      </c>
+      <c r="E27">
+        <v>0.9876538371927628</v>
+      </c>
+      <c r="F27">
+        <v>1.023102652654444</v>
+      </c>
+      <c r="G27">
+        <v>0.9876538371927628</v>
+      </c>
+      <c r="H27">
+        <v>0.9964559326577936</v>
+      </c>
+      <c r="I27">
+        <v>1.010272334606966</v>
+      </c>
+      <c r="J27">
+        <v>0.9949104531245083</v>
+      </c>
+      <c r="K27">
+        <v>0.9876538371927628</v>
+      </c>
+      <c r="L27">
+        <v>0.9978967171347422</v>
+      </c>
+      <c r="M27">
+        <v>1.010499684894593</v>
+      </c>
+      <c r="N27">
+        <v>1.010499684894593</v>
+      </c>
+      <c r="O27">
+        <v>1.010423901465384</v>
+      </c>
+      <c r="P27">
+        <v>1.002884402327316</v>
+      </c>
+      <c r="Q27">
+        <v>1.002884402327316</v>
+      </c>
+      <c r="R27">
+        <v>0.9990767610436779</v>
+      </c>
+      <c r="S27">
+        <v>0.9990767610436779</v>
+      </c>
+      <c r="T27">
+        <v>1.001715321228536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.037212478684908</v>
+      </c>
+      <c r="D28">
+        <v>0.8195054870573266</v>
+      </c>
+      <c r="E28">
+        <v>1.059551022342198</v>
+      </c>
+      <c r="F28">
+        <v>0.8195054870573266</v>
+      </c>
+      <c r="G28">
+        <v>1.059551022342198</v>
+      </c>
+      <c r="H28">
+        <v>1.095513464281281</v>
+      </c>
+      <c r="I28">
+        <v>0.905598206851144</v>
+      </c>
+      <c r="J28">
+        <v>1.043725159020829</v>
+      </c>
+      <c r="K28">
+        <v>1.059551022342198</v>
+      </c>
+      <c r="L28">
+        <v>1.037212478684908</v>
+      </c>
+      <c r="M28">
+        <v>0.9283589828711174</v>
+      </c>
+      <c r="N28">
+        <v>0.9283589828711174</v>
+      </c>
+      <c r="O28">
+        <v>0.9207720575311263</v>
+      </c>
+      <c r="P28">
+        <v>0.972089662694811</v>
+      </c>
+      <c r="Q28">
+        <v>0.972089662694811</v>
+      </c>
+      <c r="R28">
+        <v>0.9939550026066578</v>
+      </c>
+      <c r="S28">
+        <v>0.9939550026066578</v>
+      </c>
+      <c r="T28">
+        <v>0.9935176363729479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.032082633598015</v>
+      </c>
+      <c r="D29">
+        <v>0.8554559552521839</v>
+      </c>
+      <c r="E29">
+        <v>1.043578783147095</v>
+      </c>
+      <c r="F29">
+        <v>0.8554559552521839</v>
+      </c>
+      <c r="G29">
+        <v>1.043578783147095</v>
+      </c>
+      <c r="H29">
+        <v>1.083783025488432</v>
+      </c>
+      <c r="I29">
+        <v>0.9229267058641101</v>
+      </c>
+      <c r="J29">
+        <v>1.035434270727586</v>
+      </c>
+      <c r="K29">
+        <v>1.043578783147095</v>
+      </c>
+      <c r="L29">
+        <v>1.032082633598015</v>
+      </c>
+      <c r="M29">
+        <v>0.9437692944250993</v>
+      </c>
+      <c r="N29">
+        <v>0.9437692944250993</v>
+      </c>
+      <c r="O29">
+        <v>0.9368217649047695</v>
+      </c>
+      <c r="P29">
+        <v>0.977039123999098</v>
+      </c>
+      <c r="Q29">
+        <v>0.977039123999098</v>
+      </c>
+      <c r="R29">
+        <v>0.9936740387860973</v>
+      </c>
+      <c r="S29">
+        <v>0.9936740387860973</v>
+      </c>
+      <c r="T29">
+        <v>0.9955435623462371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.021685576051164</v>
+      </c>
+      <c r="D30">
+        <v>0.9275845933475816</v>
+      </c>
+      <c r="E30">
+        <v>1.011721525903533</v>
+      </c>
+      <c r="F30">
+        <v>0.9275845933475816</v>
+      </c>
+      <c r="G30">
+        <v>1.011721525903533</v>
+      </c>
+      <c r="H30">
+        <v>1.059911184444564</v>
+      </c>
+      <c r="I30">
+        <v>0.9577619591323797</v>
+      </c>
+      <c r="J30">
+        <v>1.018780602333481</v>
+      </c>
+      <c r="K30">
+        <v>1.011721525903533</v>
+      </c>
+      <c r="L30">
+        <v>1.021685576051164</v>
+      </c>
+      <c r="M30">
+        <v>0.974635084699373</v>
+      </c>
+      <c r="N30">
+        <v>0.974635084699373</v>
+      </c>
+      <c r="O30">
+        <v>0.9690107095103753</v>
+      </c>
+      <c r="P30">
+        <v>0.9869972317674266</v>
+      </c>
+      <c r="Q30">
+        <v>0.9869972317674264</v>
+      </c>
+      <c r="R30">
+        <v>0.9931783053014531</v>
+      </c>
+      <c r="S30">
+        <v>0.9931783053014531</v>
+      </c>
+      <c r="T30">
+        <v>0.9995742402021174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.024427618084709</v>
+      </c>
+      <c r="D31">
+        <v>0.9225815935991458</v>
+      </c>
+      <c r="E31">
+        <v>1.010343061187264</v>
+      </c>
+      <c r="F31">
+        <v>0.9225815935991458</v>
+      </c>
+      <c r="G31">
+        <v>1.010343061187264</v>
+      </c>
+      <c r="H31">
+        <v>1.068165627044974</v>
+      </c>
+      <c r="I31">
+        <v>0.9539685546562622</v>
+      </c>
+      <c r="J31">
+        <v>1.020321332215379</v>
+      </c>
+      <c r="K31">
+        <v>1.010343061187264</v>
+      </c>
+      <c r="L31">
+        <v>1.024427618084709</v>
+      </c>
+      <c r="M31">
+        <v>0.9735046058419277</v>
+      </c>
+      <c r="N31">
+        <v>0.9735046058419277</v>
+      </c>
+      <c r="O31">
+        <v>0.9669925887800392</v>
+      </c>
+      <c r="P31">
+        <v>0.9857840909570399</v>
+      </c>
+      <c r="Q31">
+        <v>0.9857840909570399</v>
+      </c>
+      <c r="R31">
+        <v>0.991923833514596</v>
+      </c>
+      <c r="S31">
+        <v>0.991923833514596</v>
+      </c>
+      <c r="T31">
+        <v>0.9999679644646223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.042421787671233</v>
+      </c>
+      <c r="D32">
+        <v>0.7833147323287668</v>
+      </c>
+      <c r="E32">
+        <v>1.075548873972603</v>
+      </c>
+      <c r="F32">
+        <v>0.7833147323287668</v>
+      </c>
+      <c r="G32">
+        <v>1.075548873972603</v>
+      </c>
+      <c r="H32">
+        <v>1.107467336986301</v>
+      </c>
+      <c r="I32">
+        <v>0.8881243743835617</v>
+      </c>
+      <c r="J32">
+        <v>1.052079810958904</v>
+      </c>
+      <c r="K32">
+        <v>1.075548873972603</v>
+      </c>
+      <c r="L32">
+        <v>1.042421787671233</v>
+      </c>
+      <c r="M32">
+        <v>0.9128682599999997</v>
+      </c>
+      <c r="N32">
+        <v>0.9128682599999997</v>
+      </c>
+      <c r="O32">
+        <v>0.9046202981278536</v>
+      </c>
+      <c r="P32">
+        <v>0.9670951313242006</v>
+      </c>
+      <c r="Q32">
+        <v>0.9670951313242006</v>
+      </c>
+      <c r="R32">
+        <v>0.9942085669863011</v>
+      </c>
+      <c r="S32">
+        <v>0.9942085669863011</v>
+      </c>
+      <c r="T32">
+        <v>0.9914928193835616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.025510341578947</v>
+      </c>
+      <c r="D33">
+        <v>0.9144066452631581</v>
+      </c>
+      <c r="E33">
+        <v>1.014083887894737</v>
+      </c>
+      <c r="F33">
+        <v>0.9144066452631581</v>
+      </c>
+      <c r="G33">
+        <v>1.014083887894737</v>
+      </c>
+      <c r="H33">
+        <v>1.070453055263158</v>
+      </c>
+      <c r="I33">
+        <v>0.9501398531578946</v>
+      </c>
+      <c r="J33">
+        <v>1.02217902</v>
+      </c>
+      <c r="K33">
+        <v>1.014083887894737</v>
+      </c>
+      <c r="L33">
+        <v>1.025510341578947</v>
+      </c>
+      <c r="M33">
+        <v>0.9699584934210527</v>
+      </c>
+      <c r="N33">
+        <v>0.9699584934210527</v>
+      </c>
+      <c r="O33">
+        <v>0.9633522799999999</v>
+      </c>
+      <c r="P33">
+        <v>0.9846669582456141</v>
+      </c>
+      <c r="Q33">
+        <v>0.9846669582456141</v>
+      </c>
+      <c r="R33">
+        <v>0.9920211906578948</v>
+      </c>
+      <c r="S33">
+        <v>0.9920211906578948</v>
+      </c>
+      <c r="T33">
+        <v>0.999462133859649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.025509645789474</v>
+      </c>
+      <c r="D34">
+        <v>0.914409999473684</v>
+      </c>
+      <c r="E34">
+        <v>1.014082767894737</v>
+      </c>
+      <c r="F34">
+        <v>0.914409999473684</v>
+      </c>
+      <c r="G34">
+        <v>1.014082767894737</v>
+      </c>
+      <c r="H34">
+        <v>1.07045126</v>
+      </c>
+      <c r="I34">
+        <v>0.9501416115789473</v>
+      </c>
+      <c r="J34">
+        <v>1.022178198947369</v>
+      </c>
+      <c r="K34">
+        <v>1.014082767894737</v>
+      </c>
+      <c r="L34">
+        <v>1.025509645789474</v>
+      </c>
+      <c r="M34">
+        <v>0.9699598226315789</v>
+      </c>
+      <c r="N34">
+        <v>0.9699598226315789</v>
+      </c>
+      <c r="O34">
+        <v>0.9633537522807017</v>
+      </c>
+      <c r="P34">
+        <v>0.9846674710526315</v>
+      </c>
+      <c r="Q34">
+        <v>0.9846674710526315</v>
+      </c>
+      <c r="R34">
+        <v>0.9920212952631579</v>
+      </c>
+      <c r="S34">
+        <v>0.9920212952631579</v>
+      </c>
+      <c r="T34">
+        <v>0.9994622472807017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.090204384416325</v>
+      </c>
+      <c r="D35">
+        <v>0.7207786683144215</v>
+      </c>
+      <c r="E35">
+        <v>1.033535863760973</v>
+      </c>
+      <c r="F35">
+        <v>0.7207786683144215</v>
+      </c>
+      <c r="G35">
+        <v>1.033535863760973</v>
+      </c>
+      <c r="H35">
+        <v>1.25262147036863</v>
+      </c>
+      <c r="I35">
+        <v>0.8325956669742978</v>
+      </c>
+      <c r="J35">
+        <v>1.073682976049113</v>
+      </c>
+      <c r="K35">
+        <v>1.033535863760973</v>
+      </c>
+      <c r="L35">
+        <v>1.090204384416325</v>
+      </c>
+      <c r="M35">
+        <v>0.9054915263653732</v>
+      </c>
+      <c r="N35">
+        <v>0.9054915263653732</v>
+      </c>
+      <c r="O35">
+        <v>0.881192906568348</v>
+      </c>
+      <c r="P35">
+        <v>0.9481729721639063</v>
+      </c>
+      <c r="Q35">
+        <v>0.9481729721639063</v>
+      </c>
+      <c r="R35">
+        <v>0.9695136950631729</v>
+      </c>
+      <c r="S35">
+        <v>0.9695136950631729</v>
+      </c>
+      <c r="T35">
+        <v>1.00056983831396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000036555414859</v>
+      </c>
+      <c r="D36">
+        <v>1.000018086463701</v>
+      </c>
+      <c r="E36">
+        <v>0.9999217300376998</v>
+      </c>
+      <c r="F36">
+        <v>1.000018086463701</v>
+      </c>
+      <c r="G36">
+        <v>0.9999217300376998</v>
+      </c>
+      <c r="H36">
+        <v>1.000119897679941</v>
+      </c>
+      <c r="I36">
+        <v>0.999983073009131</v>
+      </c>
+      <c r="J36">
+        <v>1.000003075801035</v>
+      </c>
+      <c r="K36">
+        <v>0.9999217300376998</v>
+      </c>
+      <c r="L36">
+        <v>1.000036555414859</v>
+      </c>
+      <c r="M36">
+        <v>1.00002732093928</v>
+      </c>
+      <c r="N36">
+        <v>1.00002732093928</v>
+      </c>
+      <c r="O36">
+        <v>1.000012571629231</v>
+      </c>
+      <c r="P36">
+        <v>0.9999921239720867</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999921239720867</v>
+      </c>
+      <c r="R36">
+        <v>0.99997452548849</v>
+      </c>
+      <c r="S36">
+        <v>0.99997452548849</v>
+      </c>
+      <c r="T36">
+        <v>1.000013736401061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000196653453942</v>
+      </c>
+      <c r="D37">
+        <v>0.9992499927949053</v>
+      </c>
+      <c r="E37">
+        <v>1.000172248062541</v>
+      </c>
+      <c r="F37">
+        <v>0.9992499927949053</v>
+      </c>
+      <c r="G37">
+        <v>1.000172248062541</v>
+      </c>
+      <c r="H37">
+        <v>1.000532540065667</v>
+      </c>
+      <c r="I37">
+        <v>0.9995799022840177</v>
+      </c>
+      <c r="J37">
+        <v>1.000189534933589</v>
+      </c>
+      <c r="K37">
+        <v>1.000172248062541</v>
+      </c>
+      <c r="L37">
+        <v>1.000196653453942</v>
+      </c>
+      <c r="M37">
+        <v>0.9997233231244236</v>
+      </c>
+      <c r="N37">
+        <v>0.9997233231244236</v>
+      </c>
+      <c r="O37">
+        <v>0.9996755161776217</v>
+      </c>
+      <c r="P37">
+        <v>0.9998729647704626</v>
+      </c>
+      <c r="Q37">
+        <v>0.9998729647704625</v>
+      </c>
+      <c r="R37">
+        <v>0.9999477855934821</v>
+      </c>
+      <c r="S37">
+        <v>0.9999477855934821</v>
+      </c>
+      <c r="T37">
+        <v>0.9999868119324434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000608290241972</v>
+      </c>
+      <c r="D38">
+        <v>0.9971900423708585</v>
+      </c>
+      <c r="E38">
+        <v>1.000874565450664</v>
+      </c>
+      <c r="F38">
+        <v>0.9971900423708585</v>
+      </c>
+      <c r="G38">
+        <v>1.000874565450664</v>
+      </c>
+      <c r="H38">
+        <v>1.001578579684565</v>
+      </c>
+      <c r="I38">
+        <v>0.9985121265972885</v>
+      </c>
+      <c r="J38">
+        <v>1.000685918199001</v>
+      </c>
+      <c r="K38">
+        <v>1.000874565450664</v>
+      </c>
+      <c r="L38">
+        <v>1.000608290241972</v>
+      </c>
+      <c r="M38">
+        <v>0.9988991663064151</v>
+      </c>
+      <c r="N38">
+        <v>0.9988991663064151</v>
+      </c>
+      <c r="O38">
+        <v>0.9987701530700396</v>
+      </c>
+      <c r="P38">
+        <v>0.9995576326878313</v>
+      </c>
+      <c r="Q38">
+        <v>0.9995576326878313</v>
+      </c>
+      <c r="R38">
+        <v>0.9998868658785394</v>
+      </c>
+      <c r="S38">
+        <v>0.9998868658785394</v>
+      </c>
+      <c r="T38">
+        <v>0.9999082537573912</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.001334619014736</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9932450461218402</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.002333238556006</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9932450461218402</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.002333238556006</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.003389007972477</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9965045562826106</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.001625761713346</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.002333238556006</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.001334619014736</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9972898325682882</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9972898325682882</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9970280738063956</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9989709678975277</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9989709678975277</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9998115355621473</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9998115355621473</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9997387049435028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.006558104747071</v>
+      </c>
+      <c r="D40">
+        <v>0.9700910149026637</v>
+      </c>
+      <c r="E40">
+        <v>1.009147877440349</v>
+      </c>
+      <c r="F40">
+        <v>0.9700910149026637</v>
+      </c>
+      <c r="G40">
+        <v>1.009147877440349</v>
+      </c>
+      <c r="H40">
+        <v>1.017041219659358</v>
+      </c>
+      <c r="I40">
+        <v>0.9841235311285921</v>
+      </c>
+      <c r="J40">
+        <v>1.007313137827874</v>
+      </c>
+      <c r="K40">
+        <v>1.009147877440349</v>
+      </c>
+      <c r="L40">
+        <v>1.006558104747071</v>
+      </c>
+      <c r="M40">
+        <v>0.9883245598248676</v>
+      </c>
+      <c r="N40">
+        <v>0.9883245598248676</v>
+      </c>
+      <c r="O40">
+        <v>0.9869242169261091</v>
+      </c>
+      <c r="P40">
+        <v>0.9952656656966946</v>
+      </c>
+      <c r="Q40">
+        <v>0.9952656656966946</v>
+      </c>
+      <c r="R40">
+        <v>0.9987362186326082</v>
+      </c>
+      <c r="S40">
+        <v>0.9987362186326082</v>
+      </c>
+      <c r="T40">
+        <v>0.9990458142843179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9957016007559948</v>
+      </c>
+      <c r="D41">
+        <v>1.016737861389567</v>
+      </c>
+      <c r="E41">
+        <v>0.9960295966607415</v>
+      </c>
+      <c r="F41">
+        <v>1.016737861389567</v>
+      </c>
+      <c r="G41">
+        <v>0.9960295966607415</v>
+      </c>
+      <c r="H41">
+        <v>0.9885007888986658</v>
+      </c>
+      <c r="I41">
+        <v>1.009267371235927</v>
+      </c>
+      <c r="J41">
+        <v>0.9957972231139474</v>
+      </c>
+      <c r="K41">
+        <v>0.9960295966607415</v>
+      </c>
+      <c r="L41">
+        <v>0.9957016007559948</v>
+      </c>
+      <c r="M41">
+        <v>1.006219731072781</v>
+      </c>
+      <c r="N41">
+        <v>1.006219731072781</v>
+      </c>
+      <c r="O41">
+        <v>1.007235611127163</v>
+      </c>
+      <c r="P41">
+        <v>1.002823019602101</v>
+      </c>
+      <c r="Q41">
+        <v>1.002823019602101</v>
+      </c>
+      <c r="R41">
+        <v>1.001124663866761</v>
+      </c>
+      <c r="S41">
+        <v>1.001124663866761</v>
+      </c>
+      <c r="T41">
+        <v>1.000339073675807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.025676967554846</v>
+      </c>
+      <c r="D42">
+        <v>0.8838984481897737</v>
+      </c>
+      <c r="E42">
+        <v>1.035082614591799</v>
+      </c>
+      <c r="F42">
+        <v>0.8838984481897737</v>
+      </c>
+      <c r="G42">
+        <v>1.035082614591799</v>
+      </c>
+      <c r="H42">
+        <v>1.066766274946261</v>
+      </c>
+      <c r="I42">
+        <v>0.9382727915305558</v>
+      </c>
+      <c r="J42">
+        <v>1.028419132400316</v>
+      </c>
+      <c r="K42">
+        <v>1.035082614591799</v>
+      </c>
+      <c r="L42">
+        <v>1.025676967554846</v>
+      </c>
+      <c r="M42">
+        <v>0.9547877078723102</v>
+      </c>
+      <c r="N42">
+        <v>0.9547877078723102</v>
+      </c>
+      <c r="O42">
+        <v>0.9492827357583921</v>
+      </c>
+      <c r="P42">
+        <v>0.9815526767788065</v>
+      </c>
+      <c r="Q42">
+        <v>0.9815526767788064</v>
+      </c>
+      <c r="R42">
+        <v>0.9949351612320546</v>
+      </c>
+      <c r="S42">
+        <v>0.9949351612320546</v>
+      </c>
+      <c r="T42">
+        <v>0.9963527048689255</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003173599132754</v>
+        <v>1.000454173862353</v>
       </c>
       <c r="D3">
-        <v>0.9906757081131772</v>
+        <v>0.9985287882538523</v>
       </c>
       <c r="E3">
-        <v>1.001869145097669</v>
+        <v>1.000214429893524</v>
       </c>
       <c r="F3">
-        <v>1.003173599132754</v>
+        <v>0.9985287882538523</v>
       </c>
       <c r="G3">
-        <v>1.004767501072246</v>
+        <v>1.000214429893524</v>
       </c>
       <c r="H3">
-        <v>0.9951558506275499</v>
+        <v>1.001262781473524</v>
       </c>
       <c r="I3">
-        <v>1.00224944828964</v>
+        <v>0.9991320036710728</v>
       </c>
       <c r="J3">
-        <v>0.9906757081131772</v>
+        <v>1.000384274621656</v>
       </c>
       <c r="K3">
-        <v>1.003173599132754</v>
+        <v>1.000214429893524</v>
       </c>
       <c r="L3">
-        <v>1.001869145097669</v>
+        <v>1.000454173862353</v>
       </c>
       <c r="M3">
-        <v>0.996272426605423</v>
+        <v>0.9994914810581027</v>
       </c>
       <c r="N3">
-        <v>0.996272426605423</v>
+        <v>0.9994914810581027</v>
       </c>
       <c r="O3">
-        <v>0.9959002346127986</v>
+        <v>0.9993716552624261</v>
       </c>
       <c r="P3">
-        <v>0.9985728174478665</v>
+        <v>0.9997324640032432</v>
       </c>
       <c r="Q3">
-        <v>0.9985728174478665</v>
+        <v>0.9997324640032432</v>
       </c>
       <c r="R3">
-        <v>0.9997230128690883</v>
+        <v>0.9998529554758135</v>
       </c>
       <c r="S3">
-        <v>0.9997230128690883</v>
+        <v>0.9998529554758135</v>
       </c>
       <c r="T3">
-        <v>0.9996485420555059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.999996075295997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006117122361796</v>
+        <v>1.006558104747071</v>
       </c>
       <c r="D4">
-        <v>0.9820018794733246</v>
+        <v>0.9700910149026637</v>
       </c>
       <c r="E4">
-        <v>1.003611939553466</v>
+        <v>1.009147877440349</v>
       </c>
       <c r="F4">
-        <v>1.006117122361796</v>
+        <v>0.9700910149026637</v>
       </c>
       <c r="G4">
-        <v>1.009211583520511</v>
+        <v>1.009147877440349</v>
       </c>
       <c r="H4">
-        <v>0.9906489392399513</v>
+        <v>1.017041219659358</v>
       </c>
       <c r="I4">
-        <v>1.004342307730939</v>
+        <v>0.9841235311285921</v>
       </c>
       <c r="J4">
-        <v>0.9820018794733246</v>
+        <v>1.007313137827874</v>
       </c>
       <c r="K4">
-        <v>1.006117122361796</v>
+        <v>1.009147877440349</v>
       </c>
       <c r="L4">
-        <v>1.003611939553466</v>
+        <v>1.006558104747071</v>
       </c>
       <c r="M4">
-        <v>0.9928069095133956</v>
+        <v>0.9883245598248676</v>
       </c>
       <c r="N4">
-        <v>0.9928069095133956</v>
+        <v>0.9883245598248676</v>
       </c>
       <c r="O4">
-        <v>0.9920875860889141</v>
+        <v>0.9869242169261091</v>
       </c>
       <c r="P4">
-        <v>0.9972436471295291</v>
+        <v>0.9952656656966946</v>
       </c>
       <c r="Q4">
-        <v>0.9972436471295291</v>
+        <v>0.9952656656966946</v>
       </c>
       <c r="R4">
-        <v>0.9994620159375958</v>
+        <v>0.9987362186326082</v>
       </c>
       <c r="S4">
-        <v>0.9994620159375958</v>
+        <v>0.9987362186326082</v>
       </c>
       <c r="T4">
-        <v>0.9993222953133314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9990458142843179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011565585405477</v>
+        <v>1.025606359531699</v>
       </c>
       <c r="D5">
-        <v>0.9656114751503008</v>
+        <v>0.9141180382204595</v>
       </c>
       <c r="E5">
-        <v>1.006970541351242</v>
+        <v>1.014113615381848</v>
       </c>
       <c r="F5">
-        <v>1.011565585405477</v>
+        <v>0.9141180382204595</v>
       </c>
       <c r="G5">
-        <v>1.017828792913671</v>
+        <v>1.014113615381848</v>
       </c>
       <c r="H5">
-        <v>0.9820848301305987</v>
+        <v>1.070723267622476</v>
       </c>
       <c r="I5">
-        <v>1.008310195847393</v>
+        <v>0.9499649194164287</v>
       </c>
       <c r="J5">
-        <v>0.9656114751503008</v>
+        <v>1.022255705518732</v>
       </c>
       <c r="K5">
-        <v>1.011565585405477</v>
+        <v>1.014113615381848</v>
       </c>
       <c r="L5">
-        <v>1.006970541351242</v>
+        <v>1.025606359531699</v>
       </c>
       <c r="M5">
-        <v>0.9862910082507712</v>
+        <v>0.9698621988760793</v>
       </c>
       <c r="N5">
-        <v>0.9862910082507712</v>
+        <v>0.9698621988760793</v>
       </c>
       <c r="O5">
-        <v>0.9848889488773803</v>
+        <v>0.963229772389529</v>
       </c>
       <c r="P5">
-        <v>0.9947158673023396</v>
+        <v>0.984612671044669</v>
       </c>
       <c r="Q5">
-        <v>0.9947158673023399</v>
+        <v>0.984612671044669</v>
       </c>
       <c r="R5">
-        <v>0.998928296828124</v>
+        <v>0.9919879071289639</v>
       </c>
       <c r="S5">
-        <v>0.998928296828124</v>
+        <v>0.9919879071289639</v>
       </c>
       <c r="T5">
-        <v>0.9987285701331134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9994636509486073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.016877922963725</v>
+        <v>1.090204384416325</v>
       </c>
       <c r="D6">
-        <v>0.9496177432974242</v>
+        <v>0.7207786683144215</v>
       </c>
       <c r="E6">
-        <v>1.010250074301097</v>
+        <v>1.033535863760973</v>
       </c>
       <c r="F6">
-        <v>1.016877922963725</v>
+        <v>0.7207786683144215</v>
       </c>
       <c r="G6">
-        <v>1.026243868181836</v>
+        <v>1.033535863760973</v>
       </c>
       <c r="H6">
-        <v>0.9737269076312904</v>
+        <v>1.25262147036863</v>
       </c>
       <c r="I6">
-        <v>1.012182384574001</v>
+        <v>0.8325956669742978</v>
       </c>
       <c r="J6">
-        <v>0.9496177432974242</v>
+        <v>1.073682976049113</v>
       </c>
       <c r="K6">
-        <v>1.016877922963725</v>
+        <v>1.033535863760973</v>
       </c>
       <c r="L6">
-        <v>1.010250074301097</v>
+        <v>1.090204384416325</v>
       </c>
       <c r="M6">
-        <v>0.9799339087992605</v>
+        <v>0.9054915263653732</v>
       </c>
       <c r="N6">
-        <v>0.9799339087992605</v>
+        <v>0.9054915263653732</v>
       </c>
       <c r="O6">
-        <v>0.9778649084099372</v>
+        <v>0.881192906568348</v>
       </c>
       <c r="P6">
-        <v>0.9922485801874151</v>
+        <v>0.9481729721639063</v>
       </c>
       <c r="Q6">
-        <v>0.9922485801874151</v>
+        <v>0.9481729721639063</v>
       </c>
       <c r="R6">
-        <v>0.9984059158814925</v>
+        <v>0.9695136950631729</v>
       </c>
       <c r="S6">
-        <v>0.9984059158814925</v>
+        <v>0.9695136950631729</v>
       </c>
       <c r="T6">
-        <v>0.9981498168248955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.00056983831396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000077372224864</v>
+        <v>1.002054410717839</v>
       </c>
       <c r="D7">
-        <v>0.9994270606785908</v>
+        <v>0.9898368253789375</v>
       </c>
       <c r="E7">
-        <v>1.000180307115688</v>
+        <v>1.003425582402213</v>
       </c>
       <c r="F7">
-        <v>1.000077372224864</v>
+        <v>0.9898368253789375</v>
       </c>
       <c r="G7">
-        <v>1.000502906449697</v>
+        <v>1.003425582402213</v>
       </c>
       <c r="H7">
-        <v>0.9996596771985782</v>
+        <v>1.005243820996184</v>
       </c>
       <c r="I7">
-        <v>1.000150294249909</v>
+        <v>0.9947127128811338</v>
       </c>
       <c r="J7">
-        <v>0.9994270606785908</v>
+        <v>1.002454165391834</v>
       </c>
       <c r="K7">
-        <v>1.000077372224864</v>
+        <v>1.003425582402213</v>
       </c>
       <c r="L7">
-        <v>1.000180307115688</v>
+        <v>1.002054410717839</v>
       </c>
       <c r="M7">
-        <v>0.9998036838971396</v>
+        <v>0.9959456180483881</v>
       </c>
       <c r="N7">
-        <v>0.9998036838971396</v>
+        <v>0.9959456180483881</v>
       </c>
       <c r="O7">
-        <v>0.9997556816642857</v>
+        <v>0.9955346496593034</v>
       </c>
       <c r="P7">
-        <v>0.9998949133397144</v>
+        <v>0.998438939499663</v>
       </c>
       <c r="Q7">
-        <v>0.9998949133397143</v>
+        <v>0.9984389394996631</v>
       </c>
       <c r="R7">
-        <v>0.9999405280610016</v>
+        <v>0.9996856002253005</v>
       </c>
       <c r="S7">
-        <v>0.9999405280610016</v>
+        <v>0.9996856002253005</v>
       </c>
       <c r="T7">
-        <v>0.9999996029862209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.999621252961357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000214429893524</v>
+        <v>1.000196653453942</v>
       </c>
       <c r="D8">
-        <v>0.9985287882538523</v>
+        <v>0.9992499927949053</v>
       </c>
       <c r="E8">
-        <v>1.000454173862353</v>
+        <v>1.000172248062541</v>
       </c>
       <c r="F8">
-        <v>1.000214429893524</v>
+        <v>0.9992499927949053</v>
       </c>
       <c r="G8">
-        <v>1.001262781473524</v>
+        <v>1.000172248062541</v>
       </c>
       <c r="H8">
-        <v>0.9991320036710728</v>
+        <v>1.000532540065667</v>
       </c>
       <c r="I8">
-        <v>1.000384274621656</v>
+        <v>0.9995799022840177</v>
       </c>
       <c r="J8">
-        <v>0.9985287882538523</v>
+        <v>1.000189534933589</v>
       </c>
       <c r="K8">
-        <v>1.000214429893524</v>
+        <v>1.000172248062541</v>
       </c>
       <c r="L8">
-        <v>1.000454173862353</v>
+        <v>1.000196653453942</v>
       </c>
       <c r="M8">
-        <v>0.9994914810581028</v>
+        <v>0.9997233231244236</v>
       </c>
       <c r="N8">
-        <v>0.9994914810581028</v>
+        <v>0.9997233231244236</v>
       </c>
       <c r="O8">
-        <v>0.9993716552624261</v>
+        <v>0.9996755161776217</v>
       </c>
       <c r="P8">
-        <v>0.9997324640032433</v>
+        <v>0.9998729647704626</v>
       </c>
       <c r="Q8">
-        <v>0.9997324640032433</v>
+        <v>0.9998729647704625</v>
       </c>
       <c r="R8">
-        <v>0.9998529554758137</v>
+        <v>0.9999477855934821</v>
       </c>
       <c r="S8">
-        <v>0.9998529554758137</v>
+        <v>0.9999477855934821</v>
       </c>
       <c r="T8">
-        <v>0.999996075295997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999868119324434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000341323170671</v>
+        <v>1.003611939553466</v>
       </c>
       <c r="D9">
-        <v>0.9979140603431159</v>
+        <v>0.9820018794733246</v>
       </c>
       <c r="E9">
-        <v>1.000623036835142</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="F9">
-        <v>1.000341323170671</v>
+        <v>0.9820018794733246</v>
       </c>
       <c r="G9">
-        <v>1.001722617941477</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="H9">
-        <v>0.9987833289936072</v>
+        <v>1.009211583520511</v>
       </c>
       <c r="I9">
-        <v>1.000540902302461</v>
+        <v>0.9906489392399513</v>
       </c>
       <c r="J9">
-        <v>0.9979140603431159</v>
+        <v>1.004342307730939</v>
       </c>
       <c r="K9">
-        <v>1.000341323170671</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="L9">
-        <v>1.000623036835142</v>
+        <v>1.003611939553466</v>
       </c>
       <c r="M9">
-        <v>0.9992685485891288</v>
+        <v>0.9928069095133956</v>
       </c>
       <c r="N9">
-        <v>0.9992685485891288</v>
+        <v>0.9928069095133956</v>
       </c>
       <c r="O9">
-        <v>0.9991068087239551</v>
+        <v>0.9920875860889141</v>
       </c>
       <c r="P9">
-        <v>0.9996261401163098</v>
+        <v>0.9972436471295291</v>
       </c>
       <c r="Q9">
-        <v>0.9996261401163098</v>
+        <v>0.9972436471295291</v>
       </c>
       <c r="R9">
-        <v>0.9998049358799002</v>
+        <v>0.9994620159375958</v>
       </c>
       <c r="S9">
-        <v>0.9998049358799002</v>
+        <v>0.9994620159375958</v>
       </c>
       <c r="T9">
-        <v>0.9999875449310792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9993222953133314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000689221599296</v>
+        <v>1.091755942852179</v>
       </c>
       <c r="D10">
-        <v>0.9955320287621172</v>
+        <v>0.7171005708770588</v>
       </c>
       <c r="E10">
-        <v>1.001358032805108</v>
+        <v>1.03334602269057</v>
       </c>
       <c r="F10">
-        <v>1.000689221599296</v>
+        <v>0.7171005708770588</v>
       </c>
       <c r="G10">
-        <v>1.00376624001838</v>
+        <v>1.03334602269057</v>
       </c>
       <c r="H10">
-        <v>0.9973780810100844</v>
+        <v>1.257171496898797</v>
       </c>
       <c r="I10">
-        <v>1.001163040812057</v>
+        <v>0.8301244471038359</v>
       </c>
       <c r="J10">
-        <v>0.9955320287621172</v>
+        <v>1.074726838303251</v>
       </c>
       <c r="K10">
-        <v>1.000689221599296</v>
+        <v>1.03334602269057</v>
       </c>
       <c r="L10">
-        <v>1.001358032805108</v>
+        <v>1.091755942852179</v>
       </c>
       <c r="M10">
-        <v>0.9984450307836126</v>
+        <v>0.9044282568646189</v>
       </c>
       <c r="N10">
-        <v>0.9984450307836126</v>
+        <v>0.9044282568646189</v>
       </c>
       <c r="O10">
-        <v>0.9980893808591031</v>
+        <v>0.8796603202776913</v>
       </c>
       <c r="P10">
-        <v>0.9991930943888404</v>
+        <v>0.9474008454732695</v>
       </c>
       <c r="Q10">
-        <v>0.9991930943888404</v>
+        <v>0.9474008454732695</v>
       </c>
       <c r="R10">
-        <v>0.9995671261914545</v>
+        <v>0.9688871397775947</v>
       </c>
       <c r="S10">
-        <v>0.9995671261914545</v>
+        <v>0.9688871397775947</v>
       </c>
       <c r="T10">
-        <v>0.9999811075011737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.000704219787615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001245081486017</v>
+        <v>1.005742982300524</v>
       </c>
       <c r="D11">
-        <v>0.9925244919927914</v>
+        <v>0.9709868620911596</v>
       </c>
       <c r="E11">
-        <v>1.002220709489882</v>
+        <v>1.009998303018022</v>
       </c>
       <c r="F11">
-        <v>1.001245081486017</v>
+        <v>0.9709868620911596</v>
       </c>
       <c r="G11">
-        <v>1.006134878777161</v>
+        <v>1.009998303018022</v>
       </c>
       <c r="H11">
-        <v>0.995647486693517</v>
+        <v>1.014579736147537</v>
       </c>
       <c r="I11">
-        <v>1.001936266954961</v>
+        <v>0.9849852321347465</v>
       </c>
       <c r="J11">
-        <v>0.9925244919927914</v>
+        <v>1.006983597141007</v>
       </c>
       <c r="K11">
-        <v>1.001245081486017</v>
+        <v>1.009998303018022</v>
       </c>
       <c r="L11">
-        <v>1.002220709489882</v>
+        <v>1.005742982300524</v>
       </c>
       <c r="M11">
-        <v>0.9973726007413368</v>
+        <v>0.9883649221958419</v>
       </c>
       <c r="N11">
-        <v>0.9973726007413368</v>
+        <v>0.9883649221958419</v>
       </c>
       <c r="O11">
-        <v>0.9967975627253969</v>
+        <v>0.9872383588421435</v>
       </c>
       <c r="P11">
-        <v>0.9986634276562301</v>
+        <v>0.9955760491365687</v>
       </c>
       <c r="Q11">
-        <v>0.9986634276562301</v>
+        <v>0.9955760491365687</v>
       </c>
       <c r="R11">
-        <v>0.9993088411136767</v>
+        <v>0.9991816126069319</v>
       </c>
       <c r="S11">
-        <v>0.9993088411136767</v>
+        <v>0.9991816126069319</v>
       </c>
       <c r="T11">
-        <v>0.9999514858990549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9988794521388328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000686371010913</v>
+        <v>1.027629126673685</v>
       </c>
       <c r="D12">
-        <v>1.059173538553208</v>
+        <v>0.9152798101789476</v>
       </c>
       <c r="E12">
-        <v>0.9765892650390741</v>
+        <v>1.009712074800002</v>
       </c>
       <c r="F12">
-        <v>1.000686371010913</v>
+        <v>0.9152798101789476</v>
       </c>
       <c r="G12">
-        <v>0.932891522805595</v>
+        <v>1.009712074800002</v>
       </c>
       <c r="H12">
-        <v>1.038172543073443</v>
+        <v>1.077491509863153</v>
       </c>
       <c r="I12">
-        <v>0.9836146582932076</v>
+        <v>0.949032864600002</v>
       </c>
       <c r="J12">
-        <v>1.059173538553208</v>
+        <v>1.022405499347368</v>
       </c>
       <c r="K12">
-        <v>1.000686371010913</v>
+        <v>1.009712074800002</v>
       </c>
       <c r="L12">
-        <v>0.9765892650390741</v>
+        <v>1.027629126673685</v>
       </c>
       <c r="M12">
-        <v>1.017881401796141</v>
+        <v>0.9714544684263164</v>
       </c>
       <c r="N12">
-        <v>1.017881401796141</v>
+        <v>0.9714544684263164</v>
       </c>
       <c r="O12">
-        <v>1.024645115555242</v>
+        <v>0.9639806004842116</v>
       </c>
       <c r="P12">
-        <v>1.012149724867732</v>
+        <v>0.9842070038842117</v>
       </c>
       <c r="Q12">
-        <v>1.012149724867732</v>
+        <v>0.9842070038842117</v>
       </c>
       <c r="R12">
-        <v>1.009283886403527</v>
+        <v>0.9905832716131593</v>
       </c>
       <c r="S12">
-        <v>1.009283886403527</v>
+        <v>0.9905832716131593</v>
       </c>
       <c r="T12">
-        <v>0.9985213164625736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000258480910526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.987653634811676</v>
+        <v>0.9841614476380335</v>
       </c>
       <c r="D13">
-        <v>1.023103745248175</v>
+        <v>1.060401180790163</v>
       </c>
       <c r="E13">
-        <v>0.9978964028596098</v>
+        <v>0.9862767919013841</v>
       </c>
       <c r="F13">
-        <v>0.987653634811676</v>
+        <v>1.060401180790163</v>
       </c>
       <c r="G13">
-        <v>0.9964550642557636</v>
+        <v>0.9862767919013841</v>
       </c>
       <c r="H13">
-        <v>1.010272971497711</v>
+        <v>0.9574987100136152</v>
       </c>
       <c r="I13">
-        <v>0.9949101681855433</v>
+        <v>1.033633075357064</v>
       </c>
       <c r="J13">
-        <v>1.023103745248175</v>
+        <v>0.9847781637871157</v>
       </c>
       <c r="K13">
-        <v>0.987653634811676</v>
+        <v>0.9862767919013841</v>
       </c>
       <c r="L13">
-        <v>0.9978964028596098</v>
+        <v>0.9841614476380335</v>
       </c>
       <c r="M13">
-        <v>1.010500074053892</v>
+        <v>1.022281314214099</v>
       </c>
       <c r="N13">
-        <v>1.010500074053892</v>
+        <v>1.022281314214099</v>
       </c>
       <c r="O13">
-        <v>1.010424373201832</v>
+        <v>1.026065234595087</v>
       </c>
       <c r="P13">
-        <v>1.002884594306487</v>
+        <v>1.010279806776527</v>
       </c>
       <c r="Q13">
-        <v>1.002884594306487</v>
+        <v>1.010279806776527</v>
       </c>
       <c r="R13">
-        <v>0.9990768544327842</v>
+        <v>1.004279053057741</v>
       </c>
       <c r="S13">
-        <v>0.9990768544327842</v>
+        <v>1.004279053057741</v>
       </c>
       <c r="T13">
-        <v>1.00171533114308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.001124894914563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000687657631786</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="D14">
-        <v>1.059169072272565</v>
+        <v>0.5123396</v>
       </c>
       <c r="E14">
-        <v>0.9765902852094965</v>
+        <v>1.055856</v>
       </c>
       <c r="F14">
-        <v>1.000687657631786</v>
+        <v>0.5123396</v>
       </c>
       <c r="G14">
-        <v>0.9328941727198361</v>
+        <v>1.055856</v>
       </c>
       <c r="H14">
-        <v>1.03817015521869</v>
+        <v>1.446257500000001</v>
       </c>
       <c r="I14">
-        <v>0.9836157530675956</v>
+        <v>0.7065622300000008</v>
       </c>
       <c r="J14">
-        <v>1.059169072272565</v>
+        <v>1.1289846</v>
       </c>
       <c r="K14">
-        <v>1.000687657631786</v>
+        <v>1.055856</v>
       </c>
       <c r="L14">
-        <v>0.9765902852094965</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="M14">
-        <v>1.017879678741031</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="N14">
-        <v>1.017879678741031</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="O14">
-        <v>1.02464317090025</v>
+        <v>0.7926601433333338</v>
       </c>
       <c r="P14">
-        <v>1.012149005037949</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="Q14">
-        <v>1.012149005037949</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="R14">
-        <v>1.009283668186409</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="S14">
-        <v>1.009283668186409</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="T14">
-        <v>0.9985211826866615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.001513088333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9876538371927628</v>
+        <v>1.0424227</v>
       </c>
       <c r="D15">
-        <v>1.023102652654444</v>
+        <v>0.78331176</v>
       </c>
       <c r="E15">
-        <v>0.9978967171347422</v>
+        <v>1.0755494</v>
       </c>
       <c r="F15">
-        <v>0.9876538371927628</v>
+        <v>0.78331176</v>
       </c>
       <c r="G15">
-        <v>0.9964559326577936</v>
+        <v>1.0755494</v>
       </c>
       <c r="H15">
-        <v>1.010272334606966</v>
+        <v>1.1074698</v>
       </c>
       <c r="I15">
-        <v>0.9949104531245083</v>
+        <v>0.88812263</v>
       </c>
       <c r="J15">
-        <v>1.023102652654444</v>
+        <v>1.0520806</v>
       </c>
       <c r="K15">
-        <v>0.9876538371927628</v>
+        <v>1.0755494</v>
       </c>
       <c r="L15">
-        <v>0.9978967171347422</v>
+        <v>1.0424227</v>
       </c>
       <c r="M15">
-        <v>1.010499684894593</v>
+        <v>0.91286723</v>
       </c>
       <c r="N15">
-        <v>1.010499684894593</v>
+        <v>0.91286723</v>
       </c>
       <c r="O15">
-        <v>1.010423901465384</v>
+        <v>0.9046190300000001</v>
       </c>
       <c r="P15">
-        <v>1.002884402327316</v>
+        <v>0.9670946200000001</v>
       </c>
       <c r="Q15">
-        <v>1.002884402327316</v>
+        <v>0.96709462</v>
       </c>
       <c r="R15">
-        <v>0.9990767610436779</v>
+        <v>0.9942083150000001</v>
       </c>
       <c r="S15">
-        <v>0.9990767610436779</v>
+        <v>0.9942083150000001</v>
       </c>
       <c r="T15">
-        <v>1.001715321228536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.991492815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999217300376998</v>
+        <v>1.04242</v>
       </c>
       <c r="D16">
-        <v>1.000018086463701</v>
+        <v>0.78332081</v>
       </c>
       <c r="E16">
-        <v>1.000036555414859</v>
+        <v>1.0755478</v>
       </c>
       <c r="F16">
-        <v>0.9999217300376998</v>
+        <v>0.78332081</v>
       </c>
       <c r="G16">
-        <v>1.000119897679941</v>
+        <v>1.0755478</v>
       </c>
       <c r="H16">
-        <v>0.9999830730091313</v>
+        <v>1.1074623</v>
       </c>
       <c r="I16">
-        <v>1.000003075801035</v>
+        <v>0.8881279399999999</v>
       </c>
       <c r="J16">
-        <v>1.000018086463701</v>
+        <v>1.0520782</v>
       </c>
       <c r="K16">
-        <v>0.9999217300376998</v>
+        <v>1.0755478</v>
       </c>
       <c r="L16">
-        <v>1.000036555414859</v>
+        <v>1.04242</v>
       </c>
       <c r="M16">
-        <v>1.00002732093928</v>
+        <v>0.9128704049999999</v>
       </c>
       <c r="N16">
-        <v>1.00002732093928</v>
+        <v>0.9128704049999999</v>
       </c>
       <c r="O16">
-        <v>1.000012571629231</v>
+        <v>0.9046229166666665</v>
       </c>
       <c r="P16">
-        <v>0.9999921239720867</v>
+        <v>0.9670962033333333</v>
       </c>
       <c r="Q16">
-        <v>0.9999921239720869</v>
+        <v>0.9670962033333333</v>
       </c>
       <c r="R16">
-        <v>0.9999745254884901</v>
+        <v>0.9942091024999999</v>
       </c>
       <c r="S16">
-        <v>0.9999745254884901</v>
+        <v>0.9942091024999999</v>
       </c>
       <c r="T16">
-        <v>1.000013736401062</v>
+        <v>0.9914928416666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000172248062541</v>
+        <v>0.96928771</v>
       </c>
       <c r="D17">
-        <v>0.9992499927949057</v>
+        <v>1.17127</v>
       </c>
       <c r="E17">
-        <v>1.000196653453942</v>
+        <v>0.93533165</v>
       </c>
       <c r="F17">
-        <v>1.000172248062541</v>
+        <v>1.17127</v>
       </c>
       <c r="G17">
-        <v>1.000532540065667</v>
+        <v>0.93533165</v>
       </c>
       <c r="H17">
-        <v>0.9995799022840177</v>
+        <v>0.9243926899999999</v>
       </c>
       <c r="I17">
-        <v>1.000189534933589</v>
+        <v>1.0864384</v>
       </c>
       <c r="J17">
-        <v>0.9992499927949057</v>
+        <v>0.95938798</v>
       </c>
       <c r="K17">
-        <v>1.000172248062541</v>
+        <v>0.93533165</v>
       </c>
       <c r="L17">
-        <v>1.000196653453942</v>
+        <v>0.96928771</v>
       </c>
       <c r="M17">
-        <v>0.9997233231244237</v>
+        <v>1.070278855</v>
       </c>
       <c r="N17">
-        <v>0.9997233231244237</v>
+        <v>1.070278855</v>
       </c>
       <c r="O17">
-        <v>0.9996755161776217</v>
+        <v>1.07566537</v>
       </c>
       <c r="P17">
-        <v>0.9998729647704628</v>
+        <v>1.025296453333333</v>
       </c>
       <c r="Q17">
-        <v>0.9998729647704628</v>
+        <v>1.025296453333333</v>
       </c>
       <c r="R17">
-        <v>0.9999477855934823</v>
+        <v>1.0028052525</v>
       </c>
       <c r="S17">
-        <v>0.9999477855934823</v>
+        <v>1.0028052525</v>
       </c>
       <c r="T17">
-        <v>0.9999868119324437</v>
+        <v>1.007684738333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000874565450664</v>
+        <v>1.042421787671233</v>
       </c>
       <c r="D18">
-        <v>0.9971900423708585</v>
+        <v>0.7833147323287668</v>
       </c>
       <c r="E18">
-        <v>1.000608290241972</v>
+        <v>1.075548873972603</v>
       </c>
       <c r="F18">
-        <v>1.000874565450664</v>
+        <v>0.7833147323287668</v>
       </c>
       <c r="G18">
-        <v>1.001578579684565</v>
+        <v>1.075548873972603</v>
       </c>
       <c r="H18">
-        <v>0.9985121265972885</v>
+        <v>1.107467336986301</v>
       </c>
       <c r="I18">
-        <v>1.000685918199001</v>
+        <v>0.8881243743835617</v>
       </c>
       <c r="J18">
-        <v>0.9971900423708585</v>
+        <v>1.052079810958904</v>
       </c>
       <c r="K18">
-        <v>1.000874565450664</v>
+        <v>1.075548873972603</v>
       </c>
       <c r="L18">
-        <v>1.000608290241972</v>
+        <v>1.042421787671233</v>
       </c>
       <c r="M18">
-        <v>0.9988991663064151</v>
+        <v>0.9128682599999997</v>
       </c>
       <c r="N18">
-        <v>0.9988991663064151</v>
+        <v>0.9128682599999997</v>
       </c>
       <c r="O18">
-        <v>0.9987701530700396</v>
+        <v>0.9046202981278536</v>
       </c>
       <c r="P18">
-        <v>0.9995576326878313</v>
+        <v>0.9670951313242006</v>
       </c>
       <c r="Q18">
-        <v>0.9995576326878313</v>
+        <v>0.9670951313242006</v>
       </c>
       <c r="R18">
-        <v>0.9998868658785394</v>
+        <v>0.9942085669863011</v>
       </c>
       <c r="S18">
-        <v>0.9998868658785394</v>
+        <v>0.9942085669863011</v>
       </c>
       <c r="T18">
-        <v>0.9999082537573915</v>
+        <v>0.9914928193835616</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.002333238556006</v>
+        <v>1.025510341578947</v>
       </c>
       <c r="D19">
-        <v>0.9932450461218402</v>
+        <v>0.9144066452631581</v>
       </c>
       <c r="E19">
-        <v>1.001334619014736</v>
+        <v>1.014083887894737</v>
       </c>
       <c r="F19">
-        <v>1.002333238556006</v>
+        <v>0.9144066452631581</v>
       </c>
       <c r="G19">
-        <v>1.003389007972477</v>
+        <v>1.014083887894737</v>
       </c>
       <c r="H19">
-        <v>0.9965045562826106</v>
+        <v>1.070453055263158</v>
       </c>
       <c r="I19">
-        <v>1.001625761713346</v>
+        <v>0.9501398531578946</v>
       </c>
       <c r="J19">
-        <v>0.9932450461218402</v>
+        <v>1.02217902</v>
       </c>
       <c r="K19">
-        <v>1.002333238556006</v>
+        <v>1.014083887894737</v>
       </c>
       <c r="L19">
-        <v>1.001334619014736</v>
+        <v>1.025510341578947</v>
       </c>
       <c r="M19">
-        <v>0.9972898325682882</v>
+        <v>0.9699584934210527</v>
       </c>
       <c r="N19">
-        <v>0.9972898325682882</v>
+        <v>0.9699584934210527</v>
       </c>
       <c r="O19">
-        <v>0.9970280738063956</v>
+        <v>0.9633522799999999</v>
       </c>
       <c r="P19">
-        <v>0.9989709678975277</v>
+        <v>0.9846669582456141</v>
       </c>
       <c r="Q19">
-        <v>0.9989709678975277</v>
+        <v>0.9846669582456141</v>
       </c>
       <c r="R19">
-        <v>0.9998115355621473</v>
+        <v>0.9920211906578948</v>
       </c>
       <c r="S19">
-        <v>0.9998115355621473</v>
+        <v>0.9920211906578948</v>
       </c>
       <c r="T19">
-        <v>0.9997387049435028</v>
+        <v>0.999462133859649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.025509645789474</v>
+      </c>
+      <c r="D20">
+        <v>0.914409999473684</v>
+      </c>
+      <c r="E20">
+        <v>1.014082767894737</v>
+      </c>
+      <c r="F20">
+        <v>0.914409999473684</v>
+      </c>
+      <c r="G20">
+        <v>1.014082767894737</v>
+      </c>
+      <c r="H20">
+        <v>1.07045126</v>
+      </c>
+      <c r="I20">
+        <v>0.9501416115789473</v>
+      </c>
+      <c r="J20">
+        <v>1.022178198947369</v>
+      </c>
+      <c r="K20">
+        <v>1.014082767894737</v>
+      </c>
+      <c r="L20">
+        <v>1.025509645789474</v>
+      </c>
+      <c r="M20">
+        <v>0.9699598226315789</v>
+      </c>
+      <c r="N20">
+        <v>0.9699598226315789</v>
+      </c>
+      <c r="O20">
+        <v>0.9633537522807017</v>
+      </c>
+      <c r="P20">
+        <v>0.9846674710526315</v>
+      </c>
+      <c r="Q20">
+        <v>0.9846674710526315</v>
+      </c>
+      <c r="R20">
+        <v>0.9920212952631579</v>
+      </c>
+      <c r="S20">
+        <v>0.9920212952631579</v>
+      </c>
+      <c r="T20">
+        <v>0.9994622472807017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9765902852094965</v>
+      </c>
+      <c r="D21">
+        <v>1.059169072272565</v>
+      </c>
+      <c r="E21">
+        <v>1.000687657631786</v>
+      </c>
+      <c r="F21">
+        <v>1.059169072272565</v>
+      </c>
+      <c r="G21">
+        <v>1.000687657631786</v>
+      </c>
+      <c r="H21">
+        <v>0.932894172719836</v>
+      </c>
+      <c r="I21">
+        <v>1.03817015521869</v>
+      </c>
+      <c r="J21">
+        <v>0.9836157530675956</v>
+      </c>
+      <c r="K21">
+        <v>1.000687657631786</v>
+      </c>
+      <c r="L21">
+        <v>0.9765902852094965</v>
+      </c>
+      <c r="M21">
+        <v>1.017879678741031</v>
+      </c>
+      <c r="N21">
+        <v>1.017879678741031</v>
+      </c>
+      <c r="O21">
+        <v>1.02464317090025</v>
+      </c>
+      <c r="P21">
+        <v>1.012149005037949</v>
+      </c>
+      <c r="Q21">
+        <v>1.012149005037949</v>
+      </c>
+      <c r="R21">
+        <v>1.009283668186409</v>
+      </c>
+      <c r="S21">
+        <v>1.009283668186409</v>
+      </c>
+      <c r="T21">
+        <v>0.9985211826866615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9978967171347422</v>
+      </c>
+      <c r="D22">
+        <v>1.023102652654444</v>
+      </c>
+      <c r="E22">
+        <v>0.9876538371927628</v>
+      </c>
+      <c r="F22">
+        <v>1.023102652654444</v>
+      </c>
+      <c r="G22">
+        <v>0.9876538371927628</v>
+      </c>
+      <c r="H22">
+        <v>0.9964559326577936</v>
+      </c>
+      <c r="I22">
+        <v>1.010272334606966</v>
+      </c>
+      <c r="J22">
+        <v>0.9949104531245083</v>
+      </c>
+      <c r="K22">
+        <v>0.9876538371927628</v>
+      </c>
+      <c r="L22">
+        <v>0.9978967171347422</v>
+      </c>
+      <c r="M22">
+        <v>1.010499684894593</v>
+      </c>
+      <c r="N22">
+        <v>1.010499684894593</v>
+      </c>
+      <c r="O22">
+        <v>1.010423901465384</v>
+      </c>
+      <c r="P22">
+        <v>1.002884402327316</v>
+      </c>
+      <c r="Q22">
+        <v>1.002884402327316</v>
+      </c>
+      <c r="R22">
+        <v>0.9990767610436779</v>
+      </c>
+      <c r="S22">
+        <v>0.9990767610436779</v>
+      </c>
+      <c r="T22">
+        <v>1.001715321228536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9765892650390741</v>
+      </c>
+      <c r="D23">
+        <v>1.059173538553208</v>
+      </c>
+      <c r="E23">
+        <v>1.000686371010913</v>
+      </c>
+      <c r="F23">
+        <v>1.059173538553208</v>
+      </c>
+      <c r="G23">
+        <v>1.000686371010913</v>
+      </c>
+      <c r="H23">
+        <v>0.932891522805595</v>
+      </c>
+      <c r="I23">
+        <v>1.038172543073444</v>
+      </c>
+      <c r="J23">
+        <v>0.9836146582932076</v>
+      </c>
+      <c r="K23">
+        <v>1.000686371010913</v>
+      </c>
+      <c r="L23">
+        <v>0.9765892650390741</v>
+      </c>
+      <c r="M23">
+        <v>1.017881401796141</v>
+      </c>
+      <c r="N23">
+        <v>1.017881401796141</v>
+      </c>
+      <c r="O23">
+        <v>1.024645115555242</v>
+      </c>
+      <c r="P23">
+        <v>1.012149724867732</v>
+      </c>
+      <c r="Q23">
+        <v>1.012149724867732</v>
+      </c>
+      <c r="R23">
+        <v>1.009283886403527</v>
+      </c>
+      <c r="S23">
+        <v>1.009283886403527</v>
+      </c>
+      <c r="T23">
+        <v>0.9985213164625736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9978964028596098</v>
+      </c>
+      <c r="D24">
+        <v>1.023103745248175</v>
+      </c>
+      <c r="E24">
+        <v>0.987653634811676</v>
+      </c>
+      <c r="F24">
+        <v>1.023103745248175</v>
+      </c>
+      <c r="G24">
+        <v>0.987653634811676</v>
+      </c>
+      <c r="H24">
+        <v>0.9964550642557636</v>
+      </c>
+      <c r="I24">
+        <v>1.010272971497711</v>
+      </c>
+      <c r="J24">
+        <v>0.9949101681855432</v>
+      </c>
+      <c r="K24">
+        <v>0.987653634811676</v>
+      </c>
+      <c r="L24">
+        <v>0.9978964028596098</v>
+      </c>
+      <c r="M24">
+        <v>1.010500074053892</v>
+      </c>
+      <c r="N24">
+        <v>1.010500074053892</v>
+      </c>
+      <c r="O24">
+        <v>1.010424373201832</v>
+      </c>
+      <c r="P24">
+        <v>1.002884594306487</v>
+      </c>
+      <c r="Q24">
+        <v>1.002884594306487</v>
+      </c>
+      <c r="R24">
+        <v>0.9990768544327842</v>
+      </c>
+      <c r="S24">
+        <v>0.9990768544327842</v>
+      </c>
+      <c r="T24">
+        <v>1.00171533114308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9765881929059513</v>
+      </c>
+      <c r="D25">
+        <v>1.059178671614442</v>
+      </c>
+      <c r="E25">
+        <v>1.000684699703033</v>
+      </c>
+      <c r="F25">
+        <v>1.059178671614442</v>
+      </c>
+      <c r="G25">
+        <v>1.000684699703033</v>
+      </c>
+      <c r="H25">
+        <v>0.9328887661075166</v>
+      </c>
+      <c r="I25">
+        <v>1.038175241230106</v>
+      </c>
+      <c r="J25">
+        <v>0.9836134162096708</v>
+      </c>
+      <c r="K25">
+        <v>1.000684699703033</v>
+      </c>
+      <c r="L25">
+        <v>0.9765881929059513</v>
+      </c>
+      <c r="M25">
+        <v>1.017883432260197</v>
+      </c>
+      <c r="N25">
+        <v>1.017883432260197</v>
+      </c>
+      <c r="O25">
+        <v>1.0246473685835</v>
+      </c>
+      <c r="P25">
+        <v>1.012150521407809</v>
+      </c>
+      <c r="Q25">
+        <v>1.012150521407809</v>
+      </c>
+      <c r="R25">
+        <v>1.009284065981615</v>
+      </c>
+      <c r="S25">
+        <v>1.009284065981615</v>
+      </c>
+      <c r="T25">
+        <v>0.9985214979617864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9978960164322249</v>
+      </c>
+      <c r="D26">
+        <v>1.023104943965152</v>
+      </c>
+      <c r="E26">
+        <v>0.9876534966251526</v>
+      </c>
+      <c r="F26">
+        <v>1.023104943965152</v>
+      </c>
+      <c r="G26">
+        <v>0.9876534966251526</v>
+      </c>
+      <c r="H26">
+        <v>0.9964539964702692</v>
+      </c>
+      <c r="I26">
+        <v>1.010273677197888</v>
+      </c>
+      <c r="J26">
+        <v>0.9949098603579607</v>
+      </c>
+      <c r="K26">
+        <v>0.9876534966251526</v>
+      </c>
+      <c r="L26">
+        <v>0.9978960164322249</v>
+      </c>
+      <c r="M26">
+        <v>1.010500480198688</v>
+      </c>
+      <c r="N26">
+        <v>1.010500480198688</v>
+      </c>
+      <c r="O26">
+        <v>1.010424879198421</v>
+      </c>
+      <c r="P26">
+        <v>1.00288481900751</v>
+      </c>
+      <c r="Q26">
+        <v>1.00288481900751</v>
+      </c>
+      <c r="R26">
+        <v>0.9990769884119204</v>
+      </c>
+      <c r="S26">
+        <v>0.9990769884119204</v>
+      </c>
+      <c r="T26">
+        <v>1.001715331841441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.007580126844534</v>
+      </c>
+      <c r="D27">
+        <v>0.9664732348274677</v>
+      </c>
+      <c r="E27">
+        <v>1.009641982088251</v>
+      </c>
+      <c r="F27">
+        <v>0.9664732348274677</v>
+      </c>
+      <c r="G27">
+        <v>1.009641982088251</v>
+      </c>
+      <c r="H27">
+        <v>1.019299582353293</v>
+      </c>
+      <c r="I27">
+        <v>0.9823293271766578</v>
+      </c>
+      <c r="J27">
+        <v>1.008181256782888</v>
+      </c>
+      <c r="K27">
+        <v>1.009641982088251</v>
+      </c>
+      <c r="L27">
+        <v>1.007580126844534</v>
+      </c>
+      <c r="M27">
+        <v>0.9870266808360009</v>
+      </c>
+      <c r="N27">
+        <v>0.9870266808360009</v>
+      </c>
+      <c r="O27">
+        <v>0.9854608962828865</v>
+      </c>
+      <c r="P27">
+        <v>0.9945651145867508</v>
+      </c>
+      <c r="Q27">
+        <v>0.9945651145867508</v>
+      </c>
+      <c r="R27">
+        <v>0.9983343314621258</v>
+      </c>
+      <c r="S27">
+        <v>0.9983343314621258</v>
+      </c>
+      <c r="T27">
+        <v>0.9989175850121819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9969186079066468</v>
+      </c>
+      <c r="D28">
+        <v>1.002294380630386</v>
+      </c>
+      <c r="E28">
+        <v>1.003946558717854</v>
+      </c>
+      <c r="F28">
+        <v>1.002294380630386</v>
+      </c>
+      <c r="G28">
+        <v>1.003946558717854</v>
+      </c>
+      <c r="H28">
+        <v>0.9904617913689832</v>
+      </c>
+      <c r="I28">
+        <v>1.002878587004748</v>
+      </c>
+      <c r="J28">
+        <v>0.998967571965873</v>
+      </c>
+      <c r="K28">
+        <v>1.003946558717854</v>
+      </c>
+      <c r="L28">
+        <v>0.9969186079066468</v>
+      </c>
+      <c r="M28">
+        <v>0.9996064942685162</v>
+      </c>
+      <c r="N28">
+        <v>0.9996064942685162</v>
+      </c>
+      <c r="O28">
+        <v>1.00069719184726</v>
+      </c>
+      <c r="P28">
+        <v>1.001053182418296</v>
+      </c>
+      <c r="Q28">
+        <v>1.001053182418296</v>
+      </c>
+      <c r="R28">
+        <v>1.001776526493185</v>
+      </c>
+      <c r="S28">
+        <v>1.001776526493185</v>
+      </c>
+      <c r="T28">
+        <v>0.9992445829324152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9718595810802532</v>
+      </c>
+      <c r="D29">
+        <v>1.098867174818803</v>
+      </c>
+      <c r="E29">
+        <v>0.9813838353946269</v>
+      </c>
+      <c r="F29">
+        <v>1.098867174818803</v>
+      </c>
+      <c r="G29">
+        <v>0.9813838353946269</v>
+      </c>
+      <c r="H29">
+        <v>0.9229679120829318</v>
+      </c>
+      <c r="I29">
+        <v>1.056680116945022</v>
+      </c>
+      <c r="J29">
+        <v>0.9746363358552159</v>
+      </c>
+      <c r="K29">
+        <v>0.9813838353946269</v>
+      </c>
+      <c r="L29">
+        <v>0.9718595810802532</v>
+      </c>
+      <c r="M29">
+        <v>1.035363377949528</v>
+      </c>
+      <c r="N29">
+        <v>1.035363377949528</v>
+      </c>
+      <c r="O29">
+        <v>1.042468957614693</v>
+      </c>
+      <c r="P29">
+        <v>1.017370197097894</v>
+      </c>
+      <c r="Q29">
+        <v>1.017370197097894</v>
+      </c>
+      <c r="R29">
+        <v>1.008373606672078</v>
+      </c>
+      <c r="S29">
+        <v>1.008373606672078</v>
+      </c>
+      <c r="T29">
+        <v>1.001065826029476</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006558104747071</v>
+        <v>1.021647457291363</v>
       </c>
       <c r="D4">
-        <v>0.9700910149026637</v>
+        <v>0.9282671978906109</v>
       </c>
       <c r="E4">
-        <v>1.009147877440349</v>
+        <v>1.011311760564904</v>
       </c>
       <c r="F4">
-        <v>0.9700910149026637</v>
+        <v>0.9282671978906109</v>
       </c>
       <c r="G4">
-        <v>1.009147877440349</v>
+        <v>1.011311760564904</v>
       </c>
       <c r="H4">
-        <v>1.017041219659358</v>
+        <v>1.05987875461917</v>
       </c>
       <c r="I4">
-        <v>0.9841235311285921</v>
+        <v>0.9580522655597753</v>
       </c>
       <c r="J4">
-        <v>1.007313137827874</v>
+        <v>1.01863413406255</v>
       </c>
       <c r="K4">
-        <v>1.009147877440349</v>
+        <v>1.011311760564904</v>
       </c>
       <c r="L4">
-        <v>1.006558104747071</v>
+        <v>1.021647457291363</v>
       </c>
       <c r="M4">
-        <v>0.9883245598248676</v>
+        <v>0.9749573275909871</v>
       </c>
       <c r="N4">
-        <v>0.9883245598248676</v>
+        <v>0.9749573275909871</v>
       </c>
       <c r="O4">
-        <v>0.9869242169261091</v>
+        <v>0.9693223069139165</v>
       </c>
       <c r="P4">
-        <v>0.9952656656966946</v>
+        <v>0.9870754719156259</v>
       </c>
       <c r="Q4">
-        <v>0.9952656656966946</v>
+        <v>0.9870754719156259</v>
       </c>
       <c r="R4">
-        <v>0.9987362186326082</v>
+        <v>0.9931345440779453</v>
       </c>
       <c r="S4">
-        <v>0.9987362186326082</v>
+        <v>0.9931345440779453</v>
       </c>
       <c r="T4">
-        <v>0.9990458142843179</v>
+        <v>0.9996319283313956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.025606359531699</v>
+        <v>1.014507662776878</v>
       </c>
       <c r="D5">
-        <v>0.9141180382204595</v>
+        <v>0.9496899277255813</v>
       </c>
       <c r="E5">
-        <v>1.014113615381848</v>
+        <v>1.009129976083197</v>
       </c>
       <c r="F5">
-        <v>0.9141180382204595</v>
+        <v>0.9496899277255813</v>
       </c>
       <c r="G5">
-        <v>1.014113615381848</v>
+        <v>1.009129976083197</v>
       </c>
       <c r="H5">
-        <v>1.070723267622476</v>
+        <v>1.039787811668401</v>
       </c>
       <c r="I5">
-        <v>0.9499649194164287</v>
+        <v>0.9710421488710952</v>
       </c>
       <c r="J5">
-        <v>1.022255705518732</v>
+        <v>1.012939825723358</v>
       </c>
       <c r="K5">
-        <v>1.014113615381848</v>
+        <v>1.009129976083197</v>
       </c>
       <c r="L5">
-        <v>1.025606359531699</v>
+        <v>1.014507662776878</v>
       </c>
       <c r="M5">
-        <v>0.9698621988760793</v>
+        <v>0.9820987952512296</v>
       </c>
       <c r="N5">
-        <v>0.9698621988760793</v>
+        <v>0.9820987952512296</v>
       </c>
       <c r="O5">
-        <v>0.963229772389529</v>
+        <v>0.9784132464578515</v>
       </c>
       <c r="P5">
-        <v>0.984612671044669</v>
+        <v>0.9911091888618854</v>
       </c>
       <c r="Q5">
-        <v>0.984612671044669</v>
+        <v>0.9911091888618854</v>
       </c>
       <c r="R5">
-        <v>0.9919879071289639</v>
+        <v>0.9956143856672133</v>
       </c>
       <c r="S5">
-        <v>0.9919879071289639</v>
+        <v>0.9956143856672133</v>
       </c>
       <c r="T5">
-        <v>0.9994636509486073</v>
+        <v>0.9995162254747516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.090204384416325</v>
+        <v>1.006558104747071</v>
       </c>
       <c r="D6">
-        <v>0.7207786683144215</v>
+        <v>0.9700910149026637</v>
       </c>
       <c r="E6">
-        <v>1.033535863760973</v>
+        <v>1.009147877440349</v>
       </c>
       <c r="F6">
-        <v>0.7207786683144215</v>
+        <v>0.9700910149026637</v>
       </c>
       <c r="G6">
-        <v>1.033535863760973</v>
+        <v>1.009147877440349</v>
       </c>
       <c r="H6">
-        <v>1.25262147036863</v>
+        <v>1.017041219659358</v>
       </c>
       <c r="I6">
-        <v>0.8325956669742978</v>
+        <v>0.9841235311285921</v>
       </c>
       <c r="J6">
-        <v>1.073682976049113</v>
+        <v>1.007313137827874</v>
       </c>
       <c r="K6">
-        <v>1.033535863760973</v>
+        <v>1.009147877440349</v>
       </c>
       <c r="L6">
-        <v>1.090204384416325</v>
+        <v>1.006558104747071</v>
       </c>
       <c r="M6">
-        <v>0.9054915263653732</v>
+        <v>0.9883245598248676</v>
       </c>
       <c r="N6">
-        <v>0.9054915263653732</v>
+        <v>0.9883245598248676</v>
       </c>
       <c r="O6">
-        <v>0.881192906568348</v>
+        <v>0.9869242169261091</v>
       </c>
       <c r="P6">
-        <v>0.9481729721639063</v>
+        <v>0.9952656656966946</v>
       </c>
       <c r="Q6">
-        <v>0.9481729721639063</v>
+        <v>0.9952656656966946</v>
       </c>
       <c r="R6">
-        <v>0.9695136950631729</v>
+        <v>0.9987362186326082</v>
       </c>
       <c r="S6">
-        <v>0.9695136950631729</v>
+        <v>0.9987362186326082</v>
       </c>
       <c r="T6">
-        <v>1.00056983831396</v>
+        <v>0.9990458142843179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002054410717839</v>
+        <v>1.025606359531699</v>
       </c>
       <c r="D7">
-        <v>0.9898368253789375</v>
+        <v>0.9141180382204595</v>
       </c>
       <c r="E7">
-        <v>1.003425582402213</v>
+        <v>1.014113615381848</v>
       </c>
       <c r="F7">
-        <v>0.9898368253789375</v>
+        <v>0.9141180382204595</v>
       </c>
       <c r="G7">
-        <v>1.003425582402213</v>
+        <v>1.014113615381848</v>
       </c>
       <c r="H7">
-        <v>1.005243820996184</v>
+        <v>1.070723267622476</v>
       </c>
       <c r="I7">
-        <v>0.9947127128811338</v>
+        <v>0.9499649194164287</v>
       </c>
       <c r="J7">
-        <v>1.002454165391834</v>
+        <v>1.022255705518732</v>
       </c>
       <c r="K7">
-        <v>1.003425582402213</v>
+        <v>1.014113615381848</v>
       </c>
       <c r="L7">
-        <v>1.002054410717839</v>
+        <v>1.025606359531699</v>
       </c>
       <c r="M7">
-        <v>0.9959456180483881</v>
+        <v>0.9698621988760793</v>
       </c>
       <c r="N7">
-        <v>0.9959456180483881</v>
+        <v>0.9698621988760793</v>
       </c>
       <c r="O7">
-        <v>0.9955346496593034</v>
+        <v>0.963229772389529</v>
       </c>
       <c r="P7">
-        <v>0.998438939499663</v>
+        <v>0.984612671044669</v>
       </c>
       <c r="Q7">
-        <v>0.9984389394996631</v>
+        <v>0.984612671044669</v>
       </c>
       <c r="R7">
-        <v>0.9996856002253005</v>
+        <v>0.9919879071289639</v>
       </c>
       <c r="S7">
-        <v>0.9996856002253005</v>
+        <v>0.9919879071289639</v>
       </c>
       <c r="T7">
-        <v>0.999621252961357</v>
+        <v>0.9994636509486073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000196653453942</v>
+        <v>1.090204384416325</v>
       </c>
       <c r="D8">
-        <v>0.9992499927949053</v>
+        <v>0.7207786683144215</v>
       </c>
       <c r="E8">
-        <v>1.000172248062541</v>
+        <v>1.033535863760973</v>
       </c>
       <c r="F8">
-        <v>0.9992499927949053</v>
+        <v>0.7207786683144215</v>
       </c>
       <c r="G8">
-        <v>1.000172248062541</v>
+        <v>1.033535863760973</v>
       </c>
       <c r="H8">
-        <v>1.000532540065667</v>
+        <v>1.25262147036863</v>
       </c>
       <c r="I8">
-        <v>0.9995799022840177</v>
+        <v>0.8325956669742978</v>
       </c>
       <c r="J8">
-        <v>1.000189534933589</v>
+        <v>1.073682976049113</v>
       </c>
       <c r="K8">
-        <v>1.000172248062541</v>
+        <v>1.033535863760973</v>
       </c>
       <c r="L8">
-        <v>1.000196653453942</v>
+        <v>1.090204384416325</v>
       </c>
       <c r="M8">
-        <v>0.9997233231244236</v>
+        <v>0.9054915263653732</v>
       </c>
       <c r="N8">
-        <v>0.9997233231244236</v>
+        <v>0.9054915263653732</v>
       </c>
       <c r="O8">
-        <v>0.9996755161776217</v>
+        <v>0.881192906568348</v>
       </c>
       <c r="P8">
-        <v>0.9998729647704626</v>
+        <v>0.9481729721639063</v>
       </c>
       <c r="Q8">
-        <v>0.9998729647704625</v>
+        <v>0.9481729721639063</v>
       </c>
       <c r="R8">
-        <v>0.9999477855934821</v>
+        <v>0.9695136950631729</v>
       </c>
       <c r="S8">
-        <v>0.9999477855934821</v>
+        <v>0.9695136950631729</v>
       </c>
       <c r="T8">
-        <v>0.9999868119324434</v>
+        <v>1.00056983831396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.003611939553466</v>
+        <v>1.002054410717839</v>
       </c>
       <c r="D9">
-        <v>0.9820018794733246</v>
+        <v>0.9898368253789375</v>
       </c>
       <c r="E9">
-        <v>1.006117122361796</v>
+        <v>1.003425582402213</v>
       </c>
       <c r="F9">
-        <v>0.9820018794733246</v>
+        <v>0.9898368253789375</v>
       </c>
       <c r="G9">
-        <v>1.006117122361796</v>
+        <v>1.003425582402213</v>
       </c>
       <c r="H9">
-        <v>1.009211583520511</v>
+        <v>1.005243820996184</v>
       </c>
       <c r="I9">
-        <v>0.9906489392399513</v>
+        <v>0.9947127128811338</v>
       </c>
       <c r="J9">
-        <v>1.004342307730939</v>
+        <v>1.002454165391834</v>
       </c>
       <c r="K9">
-        <v>1.006117122361796</v>
+        <v>1.003425582402213</v>
       </c>
       <c r="L9">
-        <v>1.003611939553466</v>
+        <v>1.002054410717839</v>
       </c>
       <c r="M9">
-        <v>0.9928069095133956</v>
+        <v>0.9959456180483881</v>
       </c>
       <c r="N9">
-        <v>0.9928069095133956</v>
+        <v>0.9959456180483881</v>
       </c>
       <c r="O9">
-        <v>0.9920875860889141</v>
+        <v>0.9955346496593034</v>
       </c>
       <c r="P9">
-        <v>0.9972436471295291</v>
+        <v>0.998438939499663</v>
       </c>
       <c r="Q9">
-        <v>0.9972436471295291</v>
+        <v>0.9984389394996631</v>
       </c>
       <c r="R9">
-        <v>0.9994620159375958</v>
+        <v>0.9996856002253005</v>
       </c>
       <c r="S9">
-        <v>0.9994620159375958</v>
+        <v>0.9996856002253005</v>
       </c>
       <c r="T9">
-        <v>0.9993222953133314</v>
+        <v>0.999621252961357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.091755942852179</v>
+        <v>1.000196653453942</v>
       </c>
       <c r="D10">
-        <v>0.7171005708770588</v>
+        <v>0.9992499927949053</v>
       </c>
       <c r="E10">
-        <v>1.03334602269057</v>
+        <v>1.000172248062541</v>
       </c>
       <c r="F10">
-        <v>0.7171005708770588</v>
+        <v>0.9992499927949053</v>
       </c>
       <c r="G10">
-        <v>1.03334602269057</v>
+        <v>1.000172248062541</v>
       </c>
       <c r="H10">
-        <v>1.257171496898797</v>
+        <v>1.000532540065667</v>
       </c>
       <c r="I10">
-        <v>0.8301244471038359</v>
+        <v>0.9995799022840177</v>
       </c>
       <c r="J10">
-        <v>1.074726838303251</v>
+        <v>1.000189534933589</v>
       </c>
       <c r="K10">
-        <v>1.03334602269057</v>
+        <v>1.000172248062541</v>
       </c>
       <c r="L10">
-        <v>1.091755942852179</v>
+        <v>1.000196653453942</v>
       </c>
       <c r="M10">
-        <v>0.9044282568646189</v>
+        <v>0.9997233231244236</v>
       </c>
       <c r="N10">
-        <v>0.9044282568646189</v>
+        <v>0.9997233231244236</v>
       </c>
       <c r="O10">
-        <v>0.8796603202776913</v>
+        <v>0.9996755161776217</v>
       </c>
       <c r="P10">
-        <v>0.9474008454732695</v>
+        <v>0.9998729647704626</v>
       </c>
       <c r="Q10">
-        <v>0.9474008454732695</v>
+        <v>0.9998729647704625</v>
       </c>
       <c r="R10">
-        <v>0.9688871397775947</v>
+        <v>0.9999477855934821</v>
       </c>
       <c r="S10">
-        <v>0.9688871397775947</v>
+        <v>0.9999477855934821</v>
       </c>
       <c r="T10">
-        <v>1.000704219787615</v>
+        <v>0.9999868119324434</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.005742982300524</v>
+        <v>1.003611939553466</v>
       </c>
       <c r="D11">
-        <v>0.9709868620911596</v>
+        <v>0.9820018794733246</v>
       </c>
       <c r="E11">
-        <v>1.009998303018022</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="F11">
-        <v>0.9709868620911596</v>
+        <v>0.9820018794733246</v>
       </c>
       <c r="G11">
-        <v>1.009998303018022</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="H11">
-        <v>1.014579736147537</v>
+        <v>1.009211583520511</v>
       </c>
       <c r="I11">
-        <v>0.9849852321347465</v>
+        <v>0.9906489392399513</v>
       </c>
       <c r="J11">
-        <v>1.006983597141007</v>
+        <v>1.004342307730939</v>
       </c>
       <c r="K11">
-        <v>1.009998303018022</v>
+        <v>1.006117122361796</v>
       </c>
       <c r="L11">
-        <v>1.005742982300524</v>
+        <v>1.003611939553466</v>
       </c>
       <c r="M11">
-        <v>0.9883649221958419</v>
+        <v>0.9928069095133956</v>
       </c>
       <c r="N11">
-        <v>0.9883649221958419</v>
+        <v>0.9928069095133956</v>
       </c>
       <c r="O11">
-        <v>0.9872383588421435</v>
+        <v>0.9920875860889141</v>
       </c>
       <c r="P11">
-        <v>0.9955760491365687</v>
+        <v>0.9972436471295291</v>
       </c>
       <c r="Q11">
-        <v>0.9955760491365687</v>
+        <v>0.9972436471295291</v>
       </c>
       <c r="R11">
-        <v>0.9991816126069319</v>
+        <v>0.9994620159375958</v>
       </c>
       <c r="S11">
-        <v>0.9991816126069319</v>
+        <v>0.9994620159375958</v>
       </c>
       <c r="T11">
-        <v>0.9988794521388328</v>
+        <v>0.9993222953133314</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.027629126673685</v>
+        <v>1.091755942852179</v>
       </c>
       <c r="D12">
-        <v>0.9152798101789476</v>
+        <v>0.7171005708770588</v>
       </c>
       <c r="E12">
-        <v>1.009712074800002</v>
+        <v>1.03334602269057</v>
       </c>
       <c r="F12">
-        <v>0.9152798101789476</v>
+        <v>0.7171005708770588</v>
       </c>
       <c r="G12">
-        <v>1.009712074800002</v>
+        <v>1.03334602269057</v>
       </c>
       <c r="H12">
-        <v>1.077491509863153</v>
+        <v>1.257171496898797</v>
       </c>
       <c r="I12">
-        <v>0.949032864600002</v>
+        <v>0.8301244471038359</v>
       </c>
       <c r="J12">
-        <v>1.022405499347368</v>
+        <v>1.074726838303251</v>
       </c>
       <c r="K12">
-        <v>1.009712074800002</v>
+        <v>1.03334602269057</v>
       </c>
       <c r="L12">
-        <v>1.027629126673685</v>
+        <v>1.091755942852179</v>
       </c>
       <c r="M12">
-        <v>0.9714544684263164</v>
+        <v>0.9044282568646189</v>
       </c>
       <c r="N12">
-        <v>0.9714544684263164</v>
+        <v>0.9044282568646189</v>
       </c>
       <c r="O12">
-        <v>0.9639806004842116</v>
+        <v>0.8796603202776913</v>
       </c>
       <c r="P12">
-        <v>0.9842070038842117</v>
+        <v>0.9474008454732695</v>
       </c>
       <c r="Q12">
-        <v>0.9842070038842117</v>
+        <v>0.9474008454732695</v>
       </c>
       <c r="R12">
-        <v>0.9905832716131593</v>
+        <v>0.9688871397775947</v>
       </c>
       <c r="S12">
-        <v>0.9905832716131593</v>
+        <v>0.9688871397775947</v>
       </c>
       <c r="T12">
-        <v>1.000258480910526</v>
+        <v>1.000704219787615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9841614476380335</v>
+        <v>1.005742982300524</v>
       </c>
       <c r="D13">
-        <v>1.060401180790163</v>
+        <v>0.9709868620911596</v>
       </c>
       <c r="E13">
-        <v>0.9862767919013841</v>
+        <v>1.009998303018022</v>
       </c>
       <c r="F13">
-        <v>1.060401180790163</v>
+        <v>0.9709868620911596</v>
       </c>
       <c r="G13">
-        <v>0.9862767919013841</v>
+        <v>1.009998303018022</v>
       </c>
       <c r="H13">
-        <v>0.9574987100136152</v>
+        <v>1.014579736147537</v>
       </c>
       <c r="I13">
-        <v>1.033633075357064</v>
+        <v>0.9849852321347465</v>
       </c>
       <c r="J13">
-        <v>0.9847781637871157</v>
+        <v>1.006983597141007</v>
       </c>
       <c r="K13">
-        <v>0.9862767919013841</v>
+        <v>1.009998303018022</v>
       </c>
       <c r="L13">
-        <v>0.9841614476380335</v>
+        <v>1.005742982300524</v>
       </c>
       <c r="M13">
-        <v>1.022281314214099</v>
+        <v>0.9883649221958419</v>
       </c>
       <c r="N13">
-        <v>1.022281314214099</v>
+        <v>0.9883649221958419</v>
       </c>
       <c r="O13">
-        <v>1.026065234595087</v>
+        <v>0.9872383588421435</v>
       </c>
       <c r="P13">
-        <v>1.010279806776527</v>
+        <v>0.9955760491365687</v>
       </c>
       <c r="Q13">
-        <v>1.010279806776527</v>
+        <v>0.9955760491365687</v>
       </c>
       <c r="R13">
-        <v>1.004279053057741</v>
+        <v>0.9991816126069319</v>
       </c>
       <c r="S13">
-        <v>1.004279053057741</v>
+        <v>0.9991816126069319</v>
       </c>
       <c r="T13">
-        <v>1.001124894914563</v>
+        <v>0.9988794521388328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.159078600000001</v>
+        <v>1.027629126673685</v>
       </c>
       <c r="D14">
-        <v>0.5123396</v>
+        <v>0.9152798101789476</v>
       </c>
       <c r="E14">
-        <v>1.055856</v>
+        <v>1.009712074800002</v>
       </c>
       <c r="F14">
-        <v>0.5123396</v>
+        <v>0.9152798101789476</v>
       </c>
       <c r="G14">
-        <v>1.055856</v>
+        <v>1.009712074800002</v>
       </c>
       <c r="H14">
-        <v>1.446257500000001</v>
+        <v>1.077491509863153</v>
       </c>
       <c r="I14">
-        <v>0.7065622300000008</v>
+        <v>0.949032864600002</v>
       </c>
       <c r="J14">
-        <v>1.1289846</v>
+        <v>1.022405499347368</v>
       </c>
       <c r="K14">
-        <v>1.055856</v>
+        <v>1.009712074800002</v>
       </c>
       <c r="L14">
-        <v>1.159078600000001</v>
+        <v>1.027629126673685</v>
       </c>
       <c r="M14">
-        <v>0.8357091000000003</v>
+        <v>0.9714544684263164</v>
       </c>
       <c r="N14">
-        <v>0.8357091000000003</v>
+        <v>0.9714544684263164</v>
       </c>
       <c r="O14">
-        <v>0.7926601433333338</v>
+        <v>0.9639806004842116</v>
       </c>
       <c r="P14">
-        <v>0.9090914000000003</v>
+        <v>0.9842070038842117</v>
       </c>
       <c r="Q14">
-        <v>0.9090914000000003</v>
+        <v>0.9842070038842117</v>
       </c>
       <c r="R14">
-        <v>0.9457825500000003</v>
+        <v>0.9905832716131593</v>
       </c>
       <c r="S14">
-        <v>0.9457825500000003</v>
+        <v>0.9905832716131593</v>
       </c>
       <c r="T14">
-        <v>1.001513088333334</v>
+        <v>1.000258480910526</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0424227</v>
+        <v>0.9841614476380335</v>
       </c>
       <c r="D15">
-        <v>0.78331176</v>
+        <v>1.060401180790163</v>
       </c>
       <c r="E15">
-        <v>1.0755494</v>
+        <v>0.9862767919013841</v>
       </c>
       <c r="F15">
-        <v>0.78331176</v>
+        <v>1.060401180790163</v>
       </c>
       <c r="G15">
-        <v>1.0755494</v>
+        <v>0.9862767919013841</v>
       </c>
       <c r="H15">
-        <v>1.1074698</v>
+        <v>0.9574987100136152</v>
       </c>
       <c r="I15">
-        <v>0.88812263</v>
+        <v>1.033633075357064</v>
       </c>
       <c r="J15">
-        <v>1.0520806</v>
+        <v>0.9847781637871157</v>
       </c>
       <c r="K15">
-        <v>1.0755494</v>
+        <v>0.9862767919013841</v>
       </c>
       <c r="L15">
-        <v>1.0424227</v>
+        <v>0.9841614476380335</v>
       </c>
       <c r="M15">
-        <v>0.91286723</v>
+        <v>1.022281314214099</v>
       </c>
       <c r="N15">
-        <v>0.91286723</v>
+        <v>1.022281314214099</v>
       </c>
       <c r="O15">
-        <v>0.9046190300000001</v>
+        <v>1.026065234595087</v>
       </c>
       <c r="P15">
-        <v>0.9670946200000001</v>
+        <v>1.010279806776527</v>
       </c>
       <c r="Q15">
-        <v>0.96709462</v>
+        <v>1.010279806776527</v>
       </c>
       <c r="R15">
-        <v>0.9942083150000001</v>
+        <v>1.004279053057741</v>
       </c>
       <c r="S15">
-        <v>0.9942083150000001</v>
+        <v>1.004279053057741</v>
       </c>
       <c r="T15">
-        <v>0.991492815</v>
+        <v>1.001124894914563</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.04242</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="D16">
-        <v>0.78332081</v>
+        <v>0.5123396</v>
       </c>
       <c r="E16">
-        <v>1.0755478</v>
+        <v>1.055856</v>
       </c>
       <c r="F16">
-        <v>0.78332081</v>
+        <v>0.5123396</v>
       </c>
       <c r="G16">
-        <v>1.0755478</v>
+        <v>1.055856</v>
       </c>
       <c r="H16">
-        <v>1.1074623</v>
+        <v>1.446257500000001</v>
       </c>
       <c r="I16">
-        <v>0.8881279399999999</v>
+        <v>0.7065622300000008</v>
       </c>
       <c r="J16">
-        <v>1.0520782</v>
+        <v>1.1289846</v>
       </c>
       <c r="K16">
-        <v>1.0755478</v>
+        <v>1.055856</v>
       </c>
       <c r="L16">
-        <v>1.04242</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="M16">
-        <v>0.9128704049999999</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="N16">
-        <v>0.9128704049999999</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="O16">
-        <v>0.9046229166666665</v>
+        <v>0.7926601433333338</v>
       </c>
       <c r="P16">
-        <v>0.9670962033333333</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="Q16">
-        <v>0.9670962033333333</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="R16">
-        <v>0.9942091024999999</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="S16">
-        <v>0.9942091024999999</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="T16">
-        <v>0.9914928416666667</v>
+        <v>1.001513088333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.96928771</v>
+        <v>1.0424227</v>
       </c>
       <c r="D17">
-        <v>1.17127</v>
+        <v>0.78331176</v>
       </c>
       <c r="E17">
-        <v>0.93533165</v>
+        <v>1.0755494</v>
       </c>
       <c r="F17">
-        <v>1.17127</v>
+        <v>0.78331176</v>
       </c>
       <c r="G17">
-        <v>0.93533165</v>
+        <v>1.0755494</v>
       </c>
       <c r="H17">
-        <v>0.9243926899999999</v>
+        <v>1.1074698</v>
       </c>
       <c r="I17">
-        <v>1.0864384</v>
+        <v>0.88812263</v>
       </c>
       <c r="J17">
-        <v>0.95938798</v>
+        <v>1.0520806</v>
       </c>
       <c r="K17">
-        <v>0.93533165</v>
+        <v>1.0755494</v>
       </c>
       <c r="L17">
-        <v>0.96928771</v>
+        <v>1.0424227</v>
       </c>
       <c r="M17">
-        <v>1.070278855</v>
+        <v>0.91286723</v>
       </c>
       <c r="N17">
-        <v>1.070278855</v>
+        <v>0.91286723</v>
       </c>
       <c r="O17">
-        <v>1.07566537</v>
+        <v>0.9046190300000001</v>
       </c>
       <c r="P17">
-        <v>1.025296453333333</v>
+        <v>0.9670946200000001</v>
       </c>
       <c r="Q17">
-        <v>1.025296453333333</v>
+        <v>0.96709462</v>
       </c>
       <c r="R17">
-        <v>1.0028052525</v>
+        <v>0.9942083150000001</v>
       </c>
       <c r="S17">
-        <v>1.0028052525</v>
+        <v>0.9942083150000001</v>
       </c>
       <c r="T17">
-        <v>1.007684738333333</v>
+        <v>0.991492815</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.042421787671233</v>
+        <v>1.04242</v>
       </c>
       <c r="D18">
-        <v>0.7833147323287668</v>
+        <v>0.78332081</v>
       </c>
       <c r="E18">
-        <v>1.075548873972603</v>
+        <v>1.0755478</v>
       </c>
       <c r="F18">
-        <v>0.7833147323287668</v>
+        <v>0.78332081</v>
       </c>
       <c r="G18">
-        <v>1.075548873972603</v>
+        <v>1.0755478</v>
       </c>
       <c r="H18">
-        <v>1.107467336986301</v>
+        <v>1.1074623</v>
       </c>
       <c r="I18">
-        <v>0.8881243743835617</v>
+        <v>0.8881279399999999</v>
       </c>
       <c r="J18">
-        <v>1.052079810958904</v>
+        <v>1.0520782</v>
       </c>
       <c r="K18">
-        <v>1.075548873972603</v>
+        <v>1.0755478</v>
       </c>
       <c r="L18">
-        <v>1.042421787671233</v>
+        <v>1.04242</v>
       </c>
       <c r="M18">
-        <v>0.9128682599999997</v>
+        <v>0.9128704049999999</v>
       </c>
       <c r="N18">
-        <v>0.9128682599999997</v>
+        <v>0.9128704049999999</v>
       </c>
       <c r="O18">
-        <v>0.9046202981278536</v>
+        <v>0.9046229166666665</v>
       </c>
       <c r="P18">
-        <v>0.9670951313242006</v>
+        <v>0.9670962033333333</v>
       </c>
       <c r="Q18">
-        <v>0.9670951313242006</v>
+        <v>0.9670962033333333</v>
       </c>
       <c r="R18">
-        <v>0.9942085669863011</v>
+        <v>0.9942091024999999</v>
       </c>
       <c r="S18">
-        <v>0.9942085669863011</v>
+        <v>0.9942091024999999</v>
       </c>
       <c r="T18">
-        <v>0.9914928193835616</v>
+        <v>0.9914928416666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.025510341578947</v>
+        <v>0.96928771</v>
       </c>
       <c r="D19">
-        <v>0.9144066452631581</v>
+        <v>1.17127</v>
       </c>
       <c r="E19">
-        <v>1.014083887894737</v>
+        <v>0.93533165</v>
       </c>
       <c r="F19">
-        <v>0.9144066452631581</v>
+        <v>1.17127</v>
       </c>
       <c r="G19">
-        <v>1.014083887894737</v>
+        <v>0.93533165</v>
       </c>
       <c r="H19">
-        <v>1.070453055263158</v>
+        <v>0.9243926899999999</v>
       </c>
       <c r="I19">
-        <v>0.9501398531578946</v>
+        <v>1.0864384</v>
       </c>
       <c r="J19">
-        <v>1.02217902</v>
+        <v>0.95938798</v>
       </c>
       <c r="K19">
-        <v>1.014083887894737</v>
+        <v>0.93533165</v>
       </c>
       <c r="L19">
-        <v>1.025510341578947</v>
+        <v>0.96928771</v>
       </c>
       <c r="M19">
-        <v>0.9699584934210527</v>
+        <v>1.070278855</v>
       </c>
       <c r="N19">
-        <v>0.9699584934210527</v>
+        <v>1.070278855</v>
       </c>
       <c r="O19">
-        <v>0.9633522799999999</v>
+        <v>1.07566537</v>
       </c>
       <c r="P19">
-        <v>0.9846669582456141</v>
+        <v>1.025296453333333</v>
       </c>
       <c r="Q19">
-        <v>0.9846669582456141</v>
+        <v>1.025296453333333</v>
       </c>
       <c r="R19">
-        <v>0.9920211906578948</v>
+        <v>1.0028052525</v>
       </c>
       <c r="S19">
-        <v>0.9920211906578948</v>
+        <v>1.0028052525</v>
       </c>
       <c r="T19">
-        <v>0.999462133859649</v>
+        <v>1.007684738333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.025509645789474</v>
+        <v>1.042421787671233</v>
       </c>
       <c r="D20">
-        <v>0.914409999473684</v>
+        <v>0.7833147323287668</v>
       </c>
       <c r="E20">
-        <v>1.014082767894737</v>
+        <v>1.075548873972603</v>
       </c>
       <c r="F20">
-        <v>0.914409999473684</v>
+        <v>0.7833147323287668</v>
       </c>
       <c r="G20">
-        <v>1.014082767894737</v>
+        <v>1.075548873972603</v>
       </c>
       <c r="H20">
-        <v>1.07045126</v>
+        <v>1.107467336986301</v>
       </c>
       <c r="I20">
-        <v>0.9501416115789473</v>
+        <v>0.8881243743835617</v>
       </c>
       <c r="J20">
-        <v>1.022178198947369</v>
+        <v>1.052079810958904</v>
       </c>
       <c r="K20">
-        <v>1.014082767894737</v>
+        <v>1.075548873972603</v>
       </c>
       <c r="L20">
-        <v>1.025509645789474</v>
+        <v>1.042421787671233</v>
       </c>
       <c r="M20">
-        <v>0.9699598226315789</v>
+        <v>0.9128682599999997</v>
       </c>
       <c r="N20">
-        <v>0.9699598226315789</v>
+        <v>0.9128682599999997</v>
       </c>
       <c r="O20">
-        <v>0.9633537522807017</v>
+        <v>0.9046202981278536</v>
       </c>
       <c r="P20">
-        <v>0.9846674710526315</v>
+        <v>0.9670951313242006</v>
       </c>
       <c r="Q20">
-        <v>0.9846674710526315</v>
+        <v>0.9670951313242006</v>
       </c>
       <c r="R20">
-        <v>0.9920212952631579</v>
+        <v>0.9942085669863011</v>
       </c>
       <c r="S20">
-        <v>0.9920212952631579</v>
+        <v>0.9942085669863011</v>
       </c>
       <c r="T20">
-        <v>0.9994622472807017</v>
+        <v>0.9914928193835616</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9765902852094965</v>
+        <v>1.025510341578947</v>
       </c>
       <c r="D21">
-        <v>1.059169072272565</v>
+        <v>0.9144066452631581</v>
       </c>
       <c r="E21">
-        <v>1.000687657631786</v>
+        <v>1.014083887894737</v>
       </c>
       <c r="F21">
-        <v>1.059169072272565</v>
+        <v>0.9144066452631581</v>
       </c>
       <c r="G21">
-        <v>1.000687657631786</v>
+        <v>1.014083887894737</v>
       </c>
       <c r="H21">
-        <v>0.932894172719836</v>
+        <v>1.070453055263158</v>
       </c>
       <c r="I21">
-        <v>1.03817015521869</v>
+        <v>0.9501398531578946</v>
       </c>
       <c r="J21">
-        <v>0.9836157530675956</v>
+        <v>1.02217902</v>
       </c>
       <c r="K21">
-        <v>1.000687657631786</v>
+        <v>1.014083887894737</v>
       </c>
       <c r="L21">
-        <v>0.9765902852094965</v>
+        <v>1.025510341578947</v>
       </c>
       <c r="M21">
-        <v>1.017879678741031</v>
+        <v>0.9699584934210527</v>
       </c>
       <c r="N21">
-        <v>1.017879678741031</v>
+        <v>0.9699584934210527</v>
       </c>
       <c r="O21">
-        <v>1.02464317090025</v>
+        <v>0.9633522799999999</v>
       </c>
       <c r="P21">
-        <v>1.012149005037949</v>
+        <v>0.9846669582456141</v>
       </c>
       <c r="Q21">
-        <v>1.012149005037949</v>
+        <v>0.9846669582456141</v>
       </c>
       <c r="R21">
-        <v>1.009283668186409</v>
+        <v>0.9920211906578948</v>
       </c>
       <c r="S21">
-        <v>1.009283668186409</v>
+        <v>0.9920211906578948</v>
       </c>
       <c r="T21">
-        <v>0.9985211826866615</v>
+        <v>0.999462133859649</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9978967171347422</v>
+        <v>1.025509645789474</v>
       </c>
       <c r="D22">
-        <v>1.023102652654444</v>
+        <v>0.914409999473684</v>
       </c>
       <c r="E22">
-        <v>0.9876538371927628</v>
+        <v>1.014082767894737</v>
       </c>
       <c r="F22">
-        <v>1.023102652654444</v>
+        <v>0.914409999473684</v>
       </c>
       <c r="G22">
-        <v>0.9876538371927628</v>
+        <v>1.014082767894737</v>
       </c>
       <c r="H22">
-        <v>0.9964559326577936</v>
+        <v>1.07045126</v>
       </c>
       <c r="I22">
-        <v>1.010272334606966</v>
+        <v>0.9501416115789473</v>
       </c>
       <c r="J22">
-        <v>0.9949104531245083</v>
+        <v>1.022178198947369</v>
       </c>
       <c r="K22">
-        <v>0.9876538371927628</v>
+        <v>1.014082767894737</v>
       </c>
       <c r="L22">
-        <v>0.9978967171347422</v>
+        <v>1.025509645789474</v>
       </c>
       <c r="M22">
-        <v>1.010499684894593</v>
+        <v>0.9699598226315789</v>
       </c>
       <c r="N22">
-        <v>1.010499684894593</v>
+        <v>0.9699598226315789</v>
       </c>
       <c r="O22">
-        <v>1.010423901465384</v>
+        <v>0.9633537522807017</v>
       </c>
       <c r="P22">
-        <v>1.002884402327316</v>
+        <v>0.9846674710526315</v>
       </c>
       <c r="Q22">
-        <v>1.002884402327316</v>
+        <v>0.9846674710526315</v>
       </c>
       <c r="R22">
-        <v>0.9990767610436779</v>
+        <v>0.9920212952631579</v>
       </c>
       <c r="S22">
-        <v>0.9990767610436779</v>
+        <v>0.9920212952631579</v>
       </c>
       <c r="T22">
-        <v>1.001715321228536</v>
+        <v>0.9994622472807017</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9765892650390741</v>
+        <v>0.9765902852094965</v>
       </c>
       <c r="D23">
-        <v>1.059173538553208</v>
+        <v>1.059169072272565</v>
       </c>
       <c r="E23">
-        <v>1.000686371010913</v>
+        <v>1.000687657631786</v>
       </c>
       <c r="F23">
-        <v>1.059173538553208</v>
+        <v>1.059169072272565</v>
       </c>
       <c r="G23">
-        <v>1.000686371010913</v>
+        <v>1.000687657631786</v>
       </c>
       <c r="H23">
-        <v>0.932891522805595</v>
+        <v>0.932894172719836</v>
       </c>
       <c r="I23">
-        <v>1.038172543073444</v>
+        <v>1.03817015521869</v>
       </c>
       <c r="J23">
-        <v>0.9836146582932076</v>
+        <v>0.9836157530675956</v>
       </c>
       <c r="K23">
-        <v>1.000686371010913</v>
+        <v>1.000687657631786</v>
       </c>
       <c r="L23">
-        <v>0.9765892650390741</v>
+        <v>0.9765902852094965</v>
       </c>
       <c r="M23">
-        <v>1.017881401796141</v>
+        <v>1.017879678741031</v>
       </c>
       <c r="N23">
-        <v>1.017881401796141</v>
+        <v>1.017879678741031</v>
       </c>
       <c r="O23">
-        <v>1.024645115555242</v>
+        <v>1.02464317090025</v>
       </c>
       <c r="P23">
-        <v>1.012149724867732</v>
+        <v>1.012149005037949</v>
       </c>
       <c r="Q23">
-        <v>1.012149724867732</v>
+        <v>1.012149005037949</v>
       </c>
       <c r="R23">
-        <v>1.009283886403527</v>
+        <v>1.009283668186409</v>
       </c>
       <c r="S23">
-        <v>1.009283886403527</v>
+        <v>1.009283668186409</v>
       </c>
       <c r="T23">
-        <v>0.9985213164625736</v>
+        <v>0.9985211826866615</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9978964028596098</v>
+        <v>0.9978967171347422</v>
       </c>
       <c r="D24">
-        <v>1.023103745248175</v>
+        <v>1.023102652654444</v>
       </c>
       <c r="E24">
-        <v>0.987653634811676</v>
+        <v>0.9876538371927628</v>
       </c>
       <c r="F24">
-        <v>1.023103745248175</v>
+        <v>1.023102652654444</v>
       </c>
       <c r="G24">
-        <v>0.987653634811676</v>
+        <v>0.9876538371927628</v>
       </c>
       <c r="H24">
-        <v>0.9964550642557636</v>
+        <v>0.9964559326577936</v>
       </c>
       <c r="I24">
-        <v>1.010272971497711</v>
+        <v>1.010272334606966</v>
       </c>
       <c r="J24">
-        <v>0.9949101681855432</v>
+        <v>0.9949104531245083</v>
       </c>
       <c r="K24">
-        <v>0.987653634811676</v>
+        <v>0.9876538371927628</v>
       </c>
       <c r="L24">
-        <v>0.9978964028596098</v>
+        <v>0.9978967171347422</v>
       </c>
       <c r="M24">
-        <v>1.010500074053892</v>
+        <v>1.010499684894593</v>
       </c>
       <c r="N24">
-        <v>1.010500074053892</v>
+        <v>1.010499684894593</v>
       </c>
       <c r="O24">
-        <v>1.010424373201832</v>
+        <v>1.010423901465384</v>
       </c>
       <c r="P24">
-        <v>1.002884594306487</v>
+        <v>1.002884402327316</v>
       </c>
       <c r="Q24">
-        <v>1.002884594306487</v>
+        <v>1.002884402327316</v>
       </c>
       <c r="R24">
-        <v>0.9990768544327842</v>
+        <v>0.9990767610436779</v>
       </c>
       <c r="S24">
-        <v>0.9990768544327842</v>
+        <v>0.9990767610436779</v>
       </c>
       <c r="T24">
-        <v>1.00171533114308</v>
+        <v>1.001715321228536</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9765881929059513</v>
+        <v>0.9765892650390741</v>
       </c>
       <c r="D25">
-        <v>1.059178671614442</v>
+        <v>1.059173538553208</v>
       </c>
       <c r="E25">
-        <v>1.000684699703033</v>
+        <v>1.000686371010913</v>
       </c>
       <c r="F25">
-        <v>1.059178671614442</v>
+        <v>1.059173538553208</v>
       </c>
       <c r="G25">
-        <v>1.000684699703033</v>
+        <v>1.000686371010913</v>
       </c>
       <c r="H25">
-        <v>0.9328887661075166</v>
+        <v>0.932891522805595</v>
       </c>
       <c r="I25">
-        <v>1.038175241230106</v>
+        <v>1.038172543073444</v>
       </c>
       <c r="J25">
-        <v>0.9836134162096708</v>
+        <v>0.9836146582932076</v>
       </c>
       <c r="K25">
-        <v>1.000684699703033</v>
+        <v>1.000686371010913</v>
       </c>
       <c r="L25">
-        <v>0.9765881929059513</v>
+        <v>0.9765892650390741</v>
       </c>
       <c r="M25">
-        <v>1.017883432260197</v>
+        <v>1.017881401796141</v>
       </c>
       <c r="N25">
-        <v>1.017883432260197</v>
+        <v>1.017881401796141</v>
       </c>
       <c r="O25">
-        <v>1.0246473685835</v>
+        <v>1.024645115555242</v>
       </c>
       <c r="P25">
-        <v>1.012150521407809</v>
+        <v>1.012149724867732</v>
       </c>
       <c r="Q25">
-        <v>1.012150521407809</v>
+        <v>1.012149724867732</v>
       </c>
       <c r="R25">
-        <v>1.009284065981615</v>
+        <v>1.009283886403527</v>
       </c>
       <c r="S25">
-        <v>1.009284065981615</v>
+        <v>1.009283886403527</v>
       </c>
       <c r="T25">
-        <v>0.9985214979617864</v>
+        <v>0.9985213164625736</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9978960164322249</v>
+        <v>0.9978964028596098</v>
       </c>
       <c r="D26">
-        <v>1.023104943965152</v>
+        <v>1.023103745248175</v>
       </c>
       <c r="E26">
-        <v>0.9876534966251526</v>
+        <v>0.987653634811676</v>
       </c>
       <c r="F26">
-        <v>1.023104943965152</v>
+        <v>1.023103745248175</v>
       </c>
       <c r="G26">
-        <v>0.9876534966251526</v>
+        <v>0.987653634811676</v>
       </c>
       <c r="H26">
-        <v>0.9964539964702692</v>
+        <v>0.9964550642557636</v>
       </c>
       <c r="I26">
-        <v>1.010273677197888</v>
+        <v>1.010272971497711</v>
       </c>
       <c r="J26">
-        <v>0.9949098603579607</v>
+        <v>0.9949101681855432</v>
       </c>
       <c r="K26">
-        <v>0.9876534966251526</v>
+        <v>0.987653634811676</v>
       </c>
       <c r="L26">
-        <v>0.9978960164322249</v>
+        <v>0.9978964028596098</v>
       </c>
       <c r="M26">
-        <v>1.010500480198688</v>
+        <v>1.010500074053892</v>
       </c>
       <c r="N26">
-        <v>1.010500480198688</v>
+        <v>1.010500074053892</v>
       </c>
       <c r="O26">
-        <v>1.010424879198421</v>
+        <v>1.010424373201832</v>
       </c>
       <c r="P26">
-        <v>1.00288481900751</v>
+        <v>1.002884594306487</v>
       </c>
       <c r="Q26">
-        <v>1.00288481900751</v>
+        <v>1.002884594306487</v>
       </c>
       <c r="R26">
-        <v>0.9990769884119204</v>
+        <v>0.9990768544327842</v>
       </c>
       <c r="S26">
-        <v>0.9990769884119204</v>
+        <v>0.9990768544327842</v>
       </c>
       <c r="T26">
-        <v>1.001715331841441</v>
+        <v>1.00171533114308</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.007580126844534</v>
+        <v>0.9765881929059513</v>
       </c>
       <c r="D27">
-        <v>0.9664732348274677</v>
+        <v>1.059178671614442</v>
       </c>
       <c r="E27">
-        <v>1.009641982088251</v>
+        <v>1.000684699703033</v>
       </c>
       <c r="F27">
-        <v>0.9664732348274677</v>
+        <v>1.059178671614442</v>
       </c>
       <c r="G27">
-        <v>1.009641982088251</v>
+        <v>1.000684699703033</v>
       </c>
       <c r="H27">
-        <v>1.019299582353293</v>
+        <v>0.9328887661075166</v>
       </c>
       <c r="I27">
-        <v>0.9823293271766578</v>
+        <v>1.038175241230106</v>
       </c>
       <c r="J27">
-        <v>1.008181256782888</v>
+        <v>0.9836134162096708</v>
       </c>
       <c r="K27">
-        <v>1.009641982088251</v>
+        <v>1.000684699703033</v>
       </c>
       <c r="L27">
-        <v>1.007580126844534</v>
+        <v>0.9765881929059513</v>
       </c>
       <c r="M27">
-        <v>0.9870266808360009</v>
+        <v>1.017883432260197</v>
       </c>
       <c r="N27">
-        <v>0.9870266808360009</v>
+        <v>1.017883432260197</v>
       </c>
       <c r="O27">
-        <v>0.9854608962828865</v>
+        <v>1.0246473685835</v>
       </c>
       <c r="P27">
-        <v>0.9945651145867508</v>
+        <v>1.012150521407809</v>
       </c>
       <c r="Q27">
-        <v>0.9945651145867508</v>
+        <v>1.012150521407809</v>
       </c>
       <c r="R27">
-        <v>0.9983343314621258</v>
+        <v>1.009284065981615</v>
       </c>
       <c r="S27">
-        <v>0.9983343314621258</v>
+        <v>1.009284065981615</v>
       </c>
       <c r="T27">
-        <v>0.9989175850121819</v>
+        <v>0.9985214979617864</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9969186079066468</v>
+        <v>0.9978960164322249</v>
       </c>
       <c r="D28">
-        <v>1.002294380630386</v>
+        <v>1.023104943965152</v>
       </c>
       <c r="E28">
-        <v>1.003946558717854</v>
+        <v>0.9876534966251526</v>
       </c>
       <c r="F28">
-        <v>1.002294380630386</v>
+        <v>1.023104943965152</v>
       </c>
       <c r="G28">
-        <v>1.003946558717854</v>
+        <v>0.9876534966251526</v>
       </c>
       <c r="H28">
-        <v>0.9904617913689832</v>
+        <v>0.9964539964702692</v>
       </c>
       <c r="I28">
-        <v>1.002878587004748</v>
+        <v>1.010273677197888</v>
       </c>
       <c r="J28">
-        <v>0.998967571965873</v>
+        <v>0.9949098603579607</v>
       </c>
       <c r="K28">
-        <v>1.003946558717854</v>
+        <v>0.9876534966251526</v>
       </c>
       <c r="L28">
-        <v>0.9969186079066468</v>
+        <v>0.9978960164322249</v>
       </c>
       <c r="M28">
-        <v>0.9996064942685162</v>
+        <v>1.010500480198688</v>
       </c>
       <c r="N28">
-        <v>0.9996064942685162</v>
+        <v>1.010500480198688</v>
       </c>
       <c r="O28">
-        <v>1.00069719184726</v>
+        <v>1.010424879198421</v>
       </c>
       <c r="P28">
-        <v>1.001053182418296</v>
+        <v>1.00288481900751</v>
       </c>
       <c r="Q28">
-        <v>1.001053182418296</v>
+        <v>1.00288481900751</v>
       </c>
       <c r="R28">
-        <v>1.001776526493185</v>
+        <v>0.9990769884119204</v>
       </c>
       <c r="S28">
-        <v>1.001776526493185</v>
+        <v>0.9990769884119204</v>
       </c>
       <c r="T28">
-        <v>0.9992445829324152</v>
+        <v>1.001715331841441</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.007580126844534</v>
+      </c>
+      <c r="D29">
+        <v>0.9664732348274677</v>
+      </c>
+      <c r="E29">
+        <v>1.009641982088251</v>
+      </c>
+      <c r="F29">
+        <v>0.9664732348274677</v>
+      </c>
+      <c r="G29">
+        <v>1.009641982088251</v>
+      </c>
+      <c r="H29">
+        <v>1.019299582353293</v>
+      </c>
+      <c r="I29">
+        <v>0.9823293271766578</v>
+      </c>
+      <c r="J29">
+        <v>1.008181256782888</v>
+      </c>
+      <c r="K29">
+        <v>1.009641982088251</v>
+      </c>
+      <c r="L29">
+        <v>1.007580126844534</v>
+      </c>
+      <c r="M29">
+        <v>0.9870266808360009</v>
+      </c>
+      <c r="N29">
+        <v>0.9870266808360009</v>
+      </c>
+      <c r="O29">
+        <v>0.9854608962828865</v>
+      </c>
+      <c r="P29">
+        <v>0.9945651145867508</v>
+      </c>
+      <c r="Q29">
+        <v>0.9945651145867508</v>
+      </c>
+      <c r="R29">
+        <v>0.9983343314621258</v>
+      </c>
+      <c r="S29">
+        <v>0.9983343314621258</v>
+      </c>
+      <c r="T29">
+        <v>0.9989175850121819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9969186079066468</v>
+      </c>
+      <c r="D30">
+        <v>1.002294380630386</v>
+      </c>
+      <c r="E30">
+        <v>1.003946558717854</v>
+      </c>
+      <c r="F30">
+        <v>1.002294380630386</v>
+      </c>
+      <c r="G30">
+        <v>1.003946558717854</v>
+      </c>
+      <c r="H30">
+        <v>0.9904617913689832</v>
+      </c>
+      <c r="I30">
+        <v>1.002878587004748</v>
+      </c>
+      <c r="J30">
+        <v>0.998967571965873</v>
+      </c>
+      <c r="K30">
+        <v>1.003946558717854</v>
+      </c>
+      <c r="L30">
+        <v>0.9969186079066468</v>
+      </c>
+      <c r="M30">
+        <v>0.9996064942685162</v>
+      </c>
+      <c r="N30">
+        <v>0.9996064942685162</v>
+      </c>
+      <c r="O30">
+        <v>1.00069719184726</v>
+      </c>
+      <c r="P30">
+        <v>1.001053182418296</v>
+      </c>
+      <c r="Q30">
+        <v>1.001053182418296</v>
+      </c>
+      <c r="R30">
+        <v>1.001776526493185</v>
+      </c>
+      <c r="S30">
+        <v>1.001776526493185</v>
+      </c>
+      <c r="T30">
+        <v>0.9992445829324152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9718595810802532</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.098867174818803</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9813838353946269</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.098867174818803</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9813838353946269</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9229679120829318</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.056680116945022</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9746363358552159</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9813838353946269</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9718595810802532</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.035363377949528</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.035363377949528</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.042468957614693</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.017370197097894</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.017370197097894</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.008373606672078</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.008373606672078</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.001065826029476</v>
       </c>
     </row>
